--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D59C1-89BE-5248-957A-46E60533E95D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2A1D59C1-89BE-5248-957A-46E60533E95D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="filter" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="filter" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="427">
   <si>
     <t>description</t>
   </si>
@@ -1331,13 +1331,23 @@
   </si>
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1421,8 +1431,160 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,8 +1603,246 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1480,152 +1880,612 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="62">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1659,7 +2519,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1684,10 +2544,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1722,7 +2582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1757,7 +2617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1851,21 +2711,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1882,7 +2742,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1934,26 +2794,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2884,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -2062,7 +2922,7 @@
         <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="N2" t="s">
         <v>256</v>
@@ -2095,7 +2955,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +3023,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2228,7 +3088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2284,7 +3144,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +3197,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2384,7 +3244,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>350</v>
       </c>
@@ -2431,7 +3291,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +3332,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -2507,7 +3367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2539,7 +3399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -2565,7 +3425,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2591,7 +3451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -2617,7 +3477,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +3500,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>414</v>
       </c>
@@ -2663,7 +3523,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>362</v>
       </c>
@@ -2680,7 +3540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>410</v>
       </c>
@@ -2697,7 +3557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2714,7 +3574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2731,7 +3591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +3608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2762,7 +3622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -2776,7 +3636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>65</v>
       </c>
@@ -2787,7 +3647,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>66</v>
       </c>
@@ -2798,7 +3658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>67</v>
       </c>
@@ -2809,7 +3669,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -2820,7 +3680,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>69</v>
       </c>
@@ -2831,7 +3691,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>70</v>
       </c>
@@ -2842,7 +3702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +3713,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>72</v>
       </c>
@@ -2864,7 +3724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>288</v>
       </c>
@@ -2872,7 +3732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>263</v>
       </c>
@@ -2880,7 +3740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>333</v>
       </c>
@@ -2888,7 +3748,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>310</v>
       </c>
@@ -2896,7 +3756,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>264</v>
       </c>
@@ -2904,7 +3764,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>311</v>
       </c>
@@ -2912,7 +3772,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
@@ -2920,7 +3780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -2928,7 +3788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>215</v>
       </c>
@@ -2936,7 +3796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
@@ -2944,7 +3804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
@@ -2952,7 +3812,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
@@ -2960,7 +3820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
@@ -2968,7 +3828,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
@@ -2976,7 +3836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>214</v>
       </c>
@@ -2984,7 +3844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>323</v>
       </c>
@@ -2992,7 +3852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
@@ -3000,7 +3860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>373</v>
       </c>
@@ -3008,7 +3868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
@@ -3016,7 +3876,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
@@ -3024,167 +3884,167 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="S52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="S53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="S54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="S55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S56" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="S57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="S58" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="S59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="S61" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="S62" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="S63" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="S64" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="S65" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="S66" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="S67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="S68" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="S69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="S70" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
       <c r="S71" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
@@ -3192,7 +4052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
@@ -3200,7 +4060,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
@@ -3208,7 +4068,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
@@ -3216,7 +4076,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
@@ -3224,7 +4084,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>335</v>
       </c>
@@ -3232,7 +4092,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>273</v>
       </c>
@@ -3240,7 +4100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>284</v>
       </c>
@@ -3248,7 +4108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>290</v>
       </c>
@@ -3256,7 +4116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>279</v>
       </c>
@@ -3264,7 +4124,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>274</v>
       </c>
@@ -3272,7 +4132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>291</v>
       </c>
@@ -3280,7 +4140,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>275</v>
       </c>
@@ -3288,7 +4148,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>276</v>
       </c>
@@ -3296,7 +4156,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>308</v>
       </c>
@@ -3304,7 +4164,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>314</v>
       </c>
@@ -3312,7 +4172,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>298</v>
       </c>
@@ -3320,7 +4180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>343</v>
       </c>
@@ -3328,7 +4188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>280</v>
       </c>
@@ -3336,7 +4196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>281</v>
       </c>
@@ -3344,124 +4204,124 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="S92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="S93" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="S94" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="S95" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="S96" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="S97" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="S98" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="S99" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="S100" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="S101" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="S102" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="S103" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="S104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="S105" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="S106" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="S107" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="S108" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="46.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="35.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="25.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="46.1640625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="18.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="41.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +4352,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
@@ -3513,7 +4373,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3530,7 +4390,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>224</v>
       </c>
@@ -3575,7 +4435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>397</v>
       </c>
@@ -3604,7 +4464,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -3631,7 +4491,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -3656,7 +4516,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -3673,7 +4533,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -3690,7 +4550,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -3707,7 +4567,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -3724,7 +4584,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -3741,7 +4601,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -3758,7 +4618,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -3775,7 +4635,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -3792,7 +4652,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -3809,7 +4669,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -3826,7 +4686,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -3843,7 +4703,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -3860,7 +4720,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -3877,7 +4737,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -3894,7 +4754,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -3911,7 +4771,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -3928,7 +4788,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -3945,7 +4805,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -3962,7 +4822,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -3979,7 +4839,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -3996,7 +4856,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4013,7 +4873,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4030,7 +4890,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4047,7 +4907,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4064,7 +4924,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4081,7 +4941,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4098,7 +4958,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4115,7 +4975,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4132,7 +4992,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4149,7 +5009,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4166,7 +5026,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4183,7 +5043,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4200,7 +5060,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4217,7 +5077,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4234,7 +5094,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4251,7 +5111,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4268,7 +5128,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4285,7 +5145,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4302,7 +5162,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4319,7 +5179,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4336,7 +5196,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4353,7 +5213,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4370,7 +5230,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4387,7 +5247,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4404,7 +5264,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4421,7 +5281,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4438,7 +5298,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4455,7 +5315,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4472,7 +5332,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4489,7 +5349,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4506,7 +5366,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4523,7 +5383,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4540,7 +5400,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4557,7 +5417,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4574,7 +5434,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4591,7 +5451,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4608,7 +5468,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4625,7 +5485,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4642,7 +5502,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4659,7 +5519,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4676,7 +5536,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4693,7 +5553,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4710,7 +5570,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4727,7 +5587,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4744,7 +5604,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4761,7 +5621,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -4778,7 +5638,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -4795,7 +5655,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -4812,7 +5672,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -4829,7 +5689,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -4846,7 +5706,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -4863,7 +5723,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -4880,7 +5740,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -4897,7 +5757,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -4914,7 +5774,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -4931,7 +5791,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -4948,7 +5808,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -4965,7 +5825,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -4982,7 +5842,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -4999,7 +5859,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5016,7 +5876,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5033,7 +5893,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5050,7 +5910,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5067,7 +5927,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5084,7 +5944,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5101,7 +5961,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5118,7 +5978,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5135,7 +5995,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5152,7 +6012,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5169,7 +6029,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5186,7 +6046,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5203,7 +6063,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5220,7 +6080,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5237,7 +6097,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5254,7 +6114,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5271,7 +6131,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5288,7 +6148,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5305,7 +6165,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5322,7 +6182,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5339,7 +6199,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5356,7 +6216,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5373,7 +6233,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5390,7 +6250,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5407,7 +6267,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5424,7 +6284,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5441,7 +6301,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5458,7 +6318,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5475,7 +6335,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5492,7 +6352,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5509,7 +6369,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5526,7 +6386,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5543,7 +6403,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5560,7 +6420,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5577,7 +6437,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5594,7 +6454,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5611,7 +6471,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5628,7 +6488,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5645,7 +6505,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5662,7 +6522,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5679,7 +6539,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5696,7 +6556,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5713,7 +6573,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5730,7 +6590,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5747,7 +6607,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5764,7 +6624,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -5781,7 +6641,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -5798,7 +6658,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -5815,7 +6675,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -5832,7 +6692,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -5849,7 +6709,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -5866,7 +6726,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -5883,7 +6743,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -5900,7 +6760,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -5917,7 +6777,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -5934,7 +6794,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -5951,7 +6811,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -5968,7 +6828,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -5985,7 +6845,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6002,7 +6862,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6019,7 +6879,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6036,7 +6896,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6053,7 +6913,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6070,7 +6930,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6087,7 +6947,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6104,7 +6964,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6121,7 +6981,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6138,7 +6998,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6155,7 +7015,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6172,7 +7032,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6189,7 +7049,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6206,7 +7066,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6223,7 +7083,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6240,7 +7100,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6257,7 +7117,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6274,7 +7134,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6291,7 +7151,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6308,7 +7168,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6325,7 +7185,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6342,7 +7202,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6359,7 +7219,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6376,7 +7236,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6393,7 +7253,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6410,7 +7270,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6427,7 +7287,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6444,7 +7304,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6461,7 +7321,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6478,7 +7338,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6495,7 +7355,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6512,7 +7372,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6529,7 +7389,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6546,7 +7406,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6563,7 +7423,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6580,7 +7440,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6597,7 +7457,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6614,7 +7474,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6631,7 +7491,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6648,7 +7508,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6665,7 +7525,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6682,7 +7542,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6699,7 +7559,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6716,7 +7576,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6733,7 +7593,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6750,7 +7610,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6767,7 +7627,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -6784,7 +7644,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -6801,7 +7661,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -6818,7 +7678,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -6835,7 +7695,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -6852,7 +7712,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -6869,7 +7729,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -6886,7 +7746,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -6903,7 +7763,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -6920,7 +7780,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -6937,7 +7797,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -6954,7 +7814,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -6971,7 +7831,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -6988,7 +7848,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7005,7 +7865,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7022,7 +7882,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7039,7 +7899,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7056,7 +7916,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7073,7 +7933,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7090,7 +7950,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7107,7 +7967,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7124,7 +7984,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7141,7 +8001,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7158,7 +8018,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7175,7 +8035,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7192,7 +8052,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7209,7 +8069,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7226,7 +8086,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7243,7 +8103,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7260,7 +8120,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7277,7 +8137,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7294,7 +8154,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7311,7 +8171,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7328,7 +8188,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7345,7 +8205,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7362,7 +8222,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7379,7 +8239,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7396,7 +8256,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7413,7 +8273,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7430,7 +8290,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7447,7 +8307,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7464,7 +8324,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7481,7 +8341,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7498,7 +8358,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7515,7 +8375,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7532,7 +8392,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7549,7 +8409,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7566,7 +8426,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7583,7 +8443,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7600,7 +8460,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7617,7 +8477,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7634,7 +8494,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7651,7 +8511,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7668,7 +8528,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7685,7 +8545,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7702,7 +8562,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7719,7 +8579,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7736,7 +8596,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7753,7 +8613,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7770,7 +8630,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -7787,7 +8647,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -7804,7 +8664,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -7821,7 +8681,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -7838,7 +8698,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -7855,7 +8715,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -7872,7 +8732,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -7889,7 +8749,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -7906,7 +8766,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -7923,7 +8783,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -7940,7 +8800,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -7957,7 +8817,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -7974,7 +8834,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -7991,7 +8851,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8008,7 +8868,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8025,7 +8885,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8042,7 +8902,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8059,7 +8919,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8076,7 +8936,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8093,7 +8953,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8110,7 +8970,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8127,7 +8987,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8144,7 +9004,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8161,7 +9021,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8178,7 +9038,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8195,7 +9055,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8212,7 +9072,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8229,7 +9089,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8246,7 +9106,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8263,7 +9123,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8280,7 +9140,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8297,7 +9157,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8314,7 +9174,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8331,7 +9191,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8348,7 +9208,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8365,7 +9225,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8382,7 +9242,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8399,7 +9259,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8416,7 +9276,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8433,7 +9293,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8450,7 +9310,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8467,7 +9327,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8484,7 +9344,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8501,7 +9361,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8518,7 +9378,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8535,7 +9395,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8552,7 +9412,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8569,7 +9429,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8586,7 +9446,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8603,7 +9463,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8620,7 +9480,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8637,7 +9497,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8654,7 +9514,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8671,7 +9531,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8688,7 +9548,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8705,7 +9565,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8722,7 +9582,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8739,7 +9599,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8756,7 +9616,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8773,7 +9633,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -8790,7 +9650,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -8807,7 +9667,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -8824,7 +9684,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -8841,7 +9701,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -8858,7 +9718,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -8875,7 +9735,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -8892,7 +9752,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -8909,7 +9769,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -8926,7 +9786,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -8943,7 +9803,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -8960,7 +9820,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -8977,7 +9837,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -8994,7 +9854,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9011,7 +9871,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9028,7 +9888,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9045,7 +9905,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9062,7 +9922,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9079,7 +9939,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9096,7 +9956,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9113,7 +9973,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9130,7 +9990,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9147,7 +10007,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9164,7 +10024,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9181,7 +10041,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9198,7 +10058,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9215,7 +10075,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9232,7 +10092,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9249,7 +10109,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9266,7 +10126,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9283,7 +10143,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9300,7 +10160,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9317,7 +10177,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9334,7 +10194,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9351,7 +10211,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9368,7 +10228,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9385,7 +10245,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9402,7 +10262,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9419,7 +10279,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9436,7 +10296,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9453,7 +10313,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9470,7 +10330,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9487,7 +10347,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9504,7 +10364,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9521,7 +10381,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9538,7 +10398,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9555,7 +10415,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9572,7 +10432,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9589,7 +10449,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9606,7 +10466,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9623,7 +10483,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9640,7 +10500,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9657,7 +10517,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9674,7 +10534,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9691,7 +10551,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9708,7 +10568,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9725,7 +10585,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9742,7 +10602,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9759,7 +10619,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -9776,7 +10636,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -9793,7 +10653,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -9810,7 +10670,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -9827,7 +10687,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -9844,7 +10704,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -9861,7 +10721,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -9878,7 +10738,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -9895,7 +10755,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -9912,7 +10772,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -9929,7 +10789,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -9946,7 +10806,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -9963,7 +10823,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -9980,7 +10840,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -9997,7 +10857,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10014,7 +10874,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10031,7 +10891,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10048,7 +10908,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10065,7 +10925,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10082,7 +10942,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10099,7 +10959,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10116,7 +10976,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10133,7 +10993,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10150,7 +11010,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10167,7 +11027,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10184,7 +11044,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10201,7 +11061,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10218,7 +11078,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10235,7 +11095,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10252,7 +11112,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10269,7 +11129,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10286,7 +11146,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10303,7 +11163,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10320,7 +11180,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10337,7 +11197,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10354,7 +11214,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10371,7 +11231,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10388,7 +11248,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10405,7 +11265,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10422,7 +11282,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10439,7 +11299,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10456,7 +11316,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10473,7 +11333,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10490,7 +11350,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10507,7 +11367,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10524,7 +11384,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10541,7 +11401,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10558,7 +11418,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10575,7 +11435,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10592,7 +11452,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10609,7 +11469,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10626,7 +11486,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10643,7 +11503,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10660,7 +11520,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10677,7 +11537,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10694,7 +11554,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10711,7 +11571,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10728,7 +11588,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10745,7 +11605,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10762,7 +11622,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -10779,7 +11639,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -10796,7 +11656,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -10813,7 +11673,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -10830,7 +11690,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -10847,7 +11707,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -10864,7 +11724,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -10881,7 +11741,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -10898,7 +11758,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -10915,7 +11775,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -10932,7 +11792,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -10949,7 +11809,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -10966,7 +11826,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -10983,7 +11843,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11000,7 +11860,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11017,7 +11877,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11034,7 +11894,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11051,7 +11911,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11068,7 +11928,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11085,7 +11945,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11102,7 +11962,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11119,7 +11979,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11136,7 +11996,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11153,7 +12013,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11170,7 +12030,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11187,7 +12047,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11204,7 +12064,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11221,7 +12081,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11238,7 +12098,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11255,7 +12115,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11272,7 +12132,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11289,7 +12149,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11306,7 +12166,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11323,7 +12183,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11340,7 +12200,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11357,7 +12217,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11374,7 +12234,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11391,7 +12251,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11408,7 +12268,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11425,7 +12285,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11442,7 +12302,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11459,7 +12319,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11476,7 +12336,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11493,7 +12353,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11510,7 +12370,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11527,7 +12387,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11544,7 +12404,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11561,7 +12421,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11578,7 +12438,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11595,7 +12455,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11612,7 +12472,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11629,7 +12489,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11646,7 +12506,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11663,7 +12523,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11680,7 +12540,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11697,7 +12557,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11714,7 +12574,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11731,7 +12591,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11748,7 +12608,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11765,7 +12625,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -11782,7 +12642,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -11799,7 +12659,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -11816,7 +12676,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -11833,7 +12693,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -11850,7 +12710,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -11867,7 +12727,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -11884,7 +12744,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -11901,7 +12761,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -11918,7 +12778,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -11935,7 +12795,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -11952,7 +12812,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -11969,7 +12829,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -11986,7 +12846,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12003,7 +12863,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12020,7 +12880,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12037,7 +12897,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12054,7 +12914,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12071,7 +12931,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12088,7 +12948,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12105,7 +12965,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12122,7 +12982,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12139,7 +12999,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12156,7 +13016,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12173,7 +13033,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12190,7 +13050,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12207,7 +13067,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12224,7 +13084,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12241,7 +13101,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12258,7 +13118,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12275,7 +13135,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12292,7 +13152,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12309,7 +13169,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12326,7 +13186,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12343,7 +13203,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12360,7 +13220,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12377,7 +13237,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12394,7 +13254,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12411,7 +13271,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12428,7 +13288,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12445,7 +13305,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12462,7 +13322,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12479,7 +13339,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12496,7 +13356,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12513,7 +13373,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12530,7 +13390,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12547,7 +13407,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12564,7 +13424,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12581,7 +13441,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12598,7 +13458,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12615,7 +13475,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12632,7 +13492,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12649,7 +13509,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12666,7 +13526,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12683,7 +13543,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12700,7 +13560,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12717,7 +13577,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12734,7 +13594,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12751,7 +13611,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12768,7 +13628,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -12785,7 +13645,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -12802,7 +13662,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -12819,7 +13679,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -12836,7 +13696,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -12853,7 +13713,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -12870,7 +13730,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -12887,7 +13747,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -12904,7 +13764,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -12921,7 +13781,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -12938,7 +13798,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -12955,7 +13815,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -12972,7 +13832,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -12989,7 +13849,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13006,7 +13866,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13023,7 +13883,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13040,7 +13900,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13057,7 +13917,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13074,7 +13934,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13091,7 +13951,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13108,7 +13968,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13125,7 +13985,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13142,7 +14002,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13159,7 +14019,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13176,7 +14036,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13193,7 +14053,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13210,7 +14070,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13227,7 +14087,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13244,7 +14104,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13261,7 +14121,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13278,7 +14138,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13295,7 +14155,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13312,7 +14172,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13329,7 +14189,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13346,7 +14206,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13363,7 +14223,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13380,7 +14240,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13397,7 +14257,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13414,7 +14274,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13431,7 +14291,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13448,7 +14308,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13465,7 +14325,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13482,7 +14342,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13499,7 +14359,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13516,7 +14376,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13533,7 +14393,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13550,7 +14410,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13567,7 +14427,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13584,7 +14444,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13601,7 +14461,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13618,7 +14478,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13635,7 +14495,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13652,7 +14512,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13669,7 +14529,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13686,7 +14546,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13703,7 +14563,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13720,7 +14580,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13737,7 +14597,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13754,7 +14614,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13771,7 +14631,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -13788,7 +14648,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -13805,7 +14665,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -13822,7 +14682,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -13839,7 +14699,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -13856,7 +14716,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -13873,7 +14733,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -13890,7 +14750,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -13907,7 +14767,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -13924,7 +14784,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -13941,7 +14801,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -13958,7 +14818,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -13975,7 +14835,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -13992,7 +14852,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14009,7 +14869,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14026,7 +14886,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14043,7 +14903,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14060,7 +14920,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14077,7 +14937,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14094,7 +14954,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14111,7 +14971,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14128,7 +14988,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14145,7 +15005,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14162,7 +15022,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14179,7 +15039,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14196,7 +15056,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14213,7 +15073,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14230,7 +15090,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14247,7 +15107,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14264,7 +15124,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14281,7 +15141,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14298,7 +15158,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14315,7 +15175,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14332,7 +15192,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14349,7 +15209,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14366,7 +15226,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14383,7 +15243,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14400,7 +15260,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14417,7 +15277,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14434,7 +15294,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14451,7 +15311,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14468,7 +15328,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14485,7 +15345,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14502,7 +15362,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14519,7 +15379,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14536,7 +15396,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14553,360 +15413,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -14914,24 +15774,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,33 +18,36 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1340,6 +1343,90 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1434,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1583,8 +1670,760 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="262">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,8 +2680,1232 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="267">
     <border>
       <left/>
       <right/>
@@ -2268,6 +4331,2262 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2275,7 +6594,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2444,40 +6763,400 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="114" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="117" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="86" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="141" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="168" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="171" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="116" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="195" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="198" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="201" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="201" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="131" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="222" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="225" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="228" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="228" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="249" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2802,7 +7481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -2863,24 +7542,33 @@
         <v>414</v>
       </c>
       <c r="Q1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>410</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2916,13 +7604,13 @@
         <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>434</v>
       </c>
       <c r="M2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="N2" t="s">
         <v>256</v>
@@ -2934,24 +7622,33 @@
         <v>415</v>
       </c>
       <c r="Q2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R2" t="s">
+        <v>440</v>
+      </c>
+      <c r="S2" t="s">
         <v>386</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>411</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2987,10 +7684,10 @@
         <v>337</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="N3" t="s">
         <v>243</v>
@@ -3001,25 +7698,31 @@
       <c r="P3" t="s">
         <v>416</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>441</v>
+      </c>
+      <c r="S3" t="s">
         <v>387</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>412</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>174</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>369</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3052,7 +7755,7 @@
         <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -3066,25 +7769,31 @@
       <c r="P4" t="s">
         <v>417</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" t="s">
         <v>363</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>413</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>175</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>180</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>186</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3111,7 +7820,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -3125,22 +7834,28 @@
       <c r="P5" t="s">
         <v>418</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>443</v>
+      </c>
+      <c r="S5" t="s">
         <v>364</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>176</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>181</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3164,7 +7879,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -3178,22 +7893,25 @@
       <c r="P6" t="s">
         <v>419</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>366</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>177</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>182</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>188</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3217,7 +7935,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -3225,22 +7943,28 @@
       <c r="N7" t="s">
         <v>247</v>
       </c>
+      <c r="O7" t="s">
+        <v>438</v>
+      </c>
       <c r="P7" t="s">
         <v>420</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>365</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3264,7 +7988,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -3275,19 +7999,22 @@
       <c r="P8" t="s">
         <v>421</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>367</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3308,7 +8035,7 @@
         <v>396</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -3319,16 +8046,16 @@
       <c r="P9" t="s">
         <v>422</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>368</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>212</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>191</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3346,10 +8073,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="N10" t="s">
         <v>250</v>
@@ -3357,13 +8084,13 @@
       <c r="P10" t="s">
         <v>423</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>260</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>192</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3381,21 +8108,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>251</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>261</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>262</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3412,16 +8139,19 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>252</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3439,15 +8169,15 @@
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>257</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>329</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3465,15 +8195,15 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3490,13 +8220,16 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
         <v>254</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3505,7 +8238,7 @@
         <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="E16" t="s">
         <v>320</v>
@@ -3516,19 +8249,19 @@
       <c r="N16" t="s">
         <v>255</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -3536,16 +8269,16 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -3553,16 +8286,16 @@
       <c r="I18" t="s">
         <v>404</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
         <v>299</v>
@@ -3570,16 +8303,16 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>300</v>
@@ -3587,16 +8320,16 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -3604,139 +8337,154 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>429</v>
+      </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3744,7 +8492,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3752,7 +8500,7 @@
       <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="S35" t="s">
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3760,7 +8508,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3768,524 +8516,542 @@
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="S37" t="s">
-        <v>405</v>
+      <c r="U37" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="S38" t="s">
-        <v>123</v>
+      <c r="U38" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="S39" t="s">
-        <v>124</v>
+      <c r="U39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>215</v>
       </c>
-      <c r="S40" t="s">
-        <v>125</v>
+      <c r="U40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="S41" t="s">
-        <v>126</v>
+      <c r="U41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="S42" t="s">
-        <v>127</v>
+      <c r="U42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="S43" t="s">
-        <v>128</v>
+      <c r="U43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="S44" t="s">
-        <v>216</v>
+      <c r="U44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="S45" t="s">
-        <v>78</v>
+      <c r="U45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="S46" t="s">
-        <v>129</v>
+      <c r="U46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>323</v>
       </c>
-      <c r="S47" t="s">
-        <v>130</v>
+      <c r="U47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="S48" t="s">
-        <v>131</v>
+      <c r="U48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="S49" t="s">
-        <v>132</v>
+      <c r="U49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
-      <c r="S50" t="s">
-        <v>349</v>
+      <c r="U50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="S51" t="s">
-        <v>133</v>
+      <c r="U51" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="S52" t="s">
-        <v>134</v>
+      <c r="U52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="S53" t="s">
-        <v>135</v>
+      <c r="U53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="S54" t="s">
-        <v>136</v>
+      <c r="U54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="S55" t="s">
-        <v>137</v>
+      <c r="U55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="S56" t="s">
-        <v>138</v>
+      <c r="U56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>306</v>
       </c>
-      <c r="S57" t="s">
-        <v>139</v>
+      <c r="U57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>315</v>
       </c>
-      <c r="S58" t="s">
-        <v>217</v>
+      <c r="U58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="S59" t="s">
-        <v>394</v>
+      <c r="U59" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="S60" t="s">
-        <v>140</v>
+      <c r="U60" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="S61" t="s">
-        <v>141</v>
+      <c r="U61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="S62" t="s">
-        <v>142</v>
+      <c r="U62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="S63" t="s">
-        <v>143</v>
+      <c r="U63" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" t="s">
-        <v>200</v>
+      <c r="U64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>316</v>
       </c>
-      <c r="S65" t="s">
-        <v>201</v>
+      <c r="U65" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="S66" t="s">
-        <v>144</v>
+      <c r="U66" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="S67" t="s">
-        <v>145</v>
+      <c r="U67" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="S68" t="s">
-        <v>146</v>
+      <c r="U68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>424</v>
       </c>
-      <c r="S69" t="s">
-        <v>147</v>
+      <c r="U69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="S70" t="s">
-        <v>148</v>
+      <c r="U70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>425</v>
       </c>
-      <c r="S71" t="s">
-        <v>202</v>
+      <c r="U71" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="S72" t="s">
-        <v>203</v>
+      <c r="U72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="S73" t="s">
-        <v>204</v>
+      <c r="U73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="S74" t="s">
-        <v>205</v>
+      <c r="U74" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="S75" t="s">
-        <v>218</v>
+      <c r="U75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="S76" t="s">
-        <v>149</v>
+      <c r="U76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="S77" t="s">
-        <v>206</v>
+        <v>432</v>
+      </c>
+      <c r="U77" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="S78" t="s">
-        <v>150</v>
+        <v>335</v>
+      </c>
+      <c r="U78" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>284</v>
-      </c>
-      <c r="S79" t="s">
-        <v>207</v>
+        <v>273</v>
+      </c>
+      <c r="U79" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>290</v>
-      </c>
-      <c r="S80" t="s">
-        <v>208</v>
+        <v>284</v>
+      </c>
+      <c r="U80" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>279</v>
-      </c>
-      <c r="S81" t="s">
-        <v>209</v>
+        <v>290</v>
+      </c>
+      <c r="U81" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="S82" t="s">
-        <v>210</v>
+        <v>279</v>
+      </c>
+      <c r="U82" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-      <c r="S83" t="s">
-        <v>226</v>
+        <v>274</v>
+      </c>
+      <c r="U83" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>275</v>
-      </c>
-      <c r="S84" t="s">
-        <v>211</v>
+        <v>291</v>
+      </c>
+      <c r="U84" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="S85" t="s">
-        <v>151</v>
+        <v>275</v>
+      </c>
+      <c r="U85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>308</v>
-      </c>
-      <c r="S86" t="s">
-        <v>388</v>
+        <v>276</v>
+      </c>
+      <c r="U86" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>314</v>
-      </c>
-      <c r="S87" t="s">
-        <v>152</v>
+        <v>308</v>
+      </c>
+      <c r="U87" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>298</v>
-      </c>
-      <c r="S88" t="s">
-        <v>153</v>
+        <v>314</v>
+      </c>
+      <c r="U88" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>343</v>
-      </c>
-      <c r="S89" t="s">
-        <v>154</v>
+        <v>298</v>
+      </c>
+      <c r="U89" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>280</v>
-      </c>
-      <c r="S90" t="s">
-        <v>155</v>
+        <v>343</v>
+      </c>
+      <c r="U90" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="U91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>281</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="S105" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106">
-      <c r="S106" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107">
-      <c r="S107" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108">
-      <c r="S108" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="456">
   <si>
     <t>description</t>
   </si>
@@ -1427,6 +1427,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2422,8 +2425,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="262">
+  <fills count="289">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3904,8 +4001,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="267">
+  <borders count="295">
     <border>
       <left/>
       <right/>
@@ -6587,6 +6837,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6594,7 +7126,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7114,49 +7646,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="249" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="249" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="252" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7481,7 +8058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8693,7 +9270,7 @@
         <v>340</v>
       </c>
       <c r="U59" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
@@ -8701,7 +9278,7 @@
         <v>312</v>
       </c>
       <c r="U60" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61">
@@ -8709,7 +9286,7 @@
         <v>313</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62">
@@ -8717,7 +9294,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -8725,7 +9302,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>445</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -8733,7 +9310,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65">
@@ -8741,7 +9318,7 @@
         <v>316</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -8749,7 +9326,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -8757,7 +9334,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -8765,7 +9342,7 @@
         <v>317</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69">
@@ -8773,7 +9350,7 @@
         <v>424</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -8781,7 +9358,7 @@
         <v>307</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -8789,7 +9366,7 @@
         <v>425</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -8797,7 +9374,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -8805,7 +9382,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -8813,7 +9390,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -8821,7 +9398,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76">
@@ -8829,7 +9406,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -8837,7 +9414,7 @@
         <v>432</v>
       </c>
       <c r="U77" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
@@ -8845,7 +9422,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79">
@@ -8853,7 +9430,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -8861,7 +9438,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -8869,7 +9446,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82">
@@ -8877,7 +9454,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -8885,7 +9462,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -8893,7 +9470,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -8901,7 +9478,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -8909,7 +9486,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87">
@@ -8917,7 +9494,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88">
@@ -8925,7 +9502,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -8933,7 +9510,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
@@ -8941,7 +9518,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91">
@@ -8949,7 +9526,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -8957,101 +9534,106 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -40,8 +40,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1430,6 +1430,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="186" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2519,8 +2543,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="289">
+  <fills count="316">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4154,8 +4272,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="295">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7119,6 +7390,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7126,7 +7679,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="212">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7691,49 +8244,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="276" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="282" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="282" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="303" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="306" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8058,7 +8656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8384,6 +8982,9 @@
       <c r="C5" t="s">
         <v>227</v>
       </c>
+      <c r="D5" t="s">
+        <v>456</v>
+      </c>
       <c r="E5" t="s">
         <v>339</v>
       </c>
@@ -8477,7 +9078,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
@@ -8532,6 +9133,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>463</v>
+      </c>
       <c r="W7" t="s">
         <v>183</v>
       </c>
@@ -8582,6 +9186,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>177</v>
+      </c>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -8650,7 +9257,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>458</v>
       </c>
       <c r="M10" t="s">
         <v>437</v>
@@ -8685,7 +9292,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8717,7 +9324,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8745,6 +9352,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -8895,7 +9505,7 @@
         <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -8912,7 +9522,7 @@
         <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -8928,6 +9538,9 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -9158,7 +9771,7 @@
         <v>345</v>
       </c>
       <c r="U45" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46">
@@ -9166,7 +9779,7 @@
         <v>214</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47">
@@ -9174,7 +9787,7 @@
         <v>323</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -9182,7 +9795,7 @@
         <v>342</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -9190,7 +9803,7 @@
         <v>373</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -9198,7 +9811,7 @@
         <v>305</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -9206,7 +9819,7 @@
         <v>359</v>
       </c>
       <c r="U51" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -9214,7 +9827,7 @@
         <v>334</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53">
@@ -9222,7 +9835,7 @@
         <v>271</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -9230,7 +9843,7 @@
         <v>295</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -9238,7 +9851,7 @@
         <v>296</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -9246,7 +9859,7 @@
         <v>297</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -9254,7 +9867,7 @@
         <v>306</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -9262,7 +9875,7 @@
         <v>315</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -9270,7 +9883,7 @@
         <v>340</v>
       </c>
       <c r="U59" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -9278,7 +9891,7 @@
         <v>312</v>
       </c>
       <c r="U60" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61">
@@ -9286,7 +9899,7 @@
         <v>313</v>
       </c>
       <c r="U61" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62">
@@ -9294,7 +9907,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63">
@@ -9302,7 +9915,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
@@ -9310,7 +9923,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>445</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -9318,7 +9931,7 @@
         <v>316</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -9326,7 +9939,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -9334,7 +9947,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -9342,7 +9955,7 @@
         <v>317</v>
       </c>
       <c r="U68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -9350,7 +9963,7 @@
         <v>424</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70">
@@ -9358,7 +9971,7 @@
         <v>307</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -9366,7 +9979,7 @@
         <v>425</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -9374,7 +9987,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -9382,7 +9995,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -9390,7 +10003,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -9398,7 +10011,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -9406,7 +10019,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -9414,7 +10027,7 @@
         <v>432</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -9422,7 +10035,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
@@ -9430,7 +10043,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80">
@@ -9438,7 +10051,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -9446,7 +10059,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
@@ -9454,7 +10067,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83">
@@ -9462,7 +10075,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84">
@@ -9470,7 +10083,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -9478,7 +10091,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -9486,7 +10099,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -9494,7 +10107,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -9502,7 +10115,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89">
@@ -9510,7 +10123,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -9518,7 +10131,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -9526,7 +10139,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
@@ -9534,106 +10147,116 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1461,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="186" x14ac:knownFonts="1">
+  <fonts count="201" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2637,8 +2637,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="316">
+  <fills count="343">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4425,8 +4519,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="351">
     <border>
       <left/>
       <right/>
@@ -7672,6 +7919,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7679,7 +8208,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8289,49 +8818,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="176" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="303" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="303" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="306" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="306" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="333" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="336" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6688" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1461,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="201" x14ac:knownFonts="1">
+  <fonts count="216" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2731,8 +2731,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="343">
+  <fills count="370">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4672,8 +4766,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="351">
+  <borders count="379">
     <border>
       <left/>
       <right/>
@@ -8201,6 +8448,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8208,7 +8737,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="242">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8863,49 +9392,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="333" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="333" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="336" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="336" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="357" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="360" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9687,7 +10261,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -9743,7 +10317,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -9793,7 +10367,7 @@
         <v>396</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -9831,7 +10405,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>458</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>437</v>
@@ -9866,7 +10440,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>458</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -9898,7 +10472,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -9927,7 +10501,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -9954,6 +10528,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6688" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8062" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1454,6 +1454,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="216" x14ac:knownFonts="1">
+  <fonts count="261" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2825,8 +2834,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="370">
+  <fills count="451">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4919,8 +5210,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="379">
+  <borders count="463">
     <border>
       <left/>
       <right/>
@@ -8730,6 +9480,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8737,7 +10333,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9437,49 +11033,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="357" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="357" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="360" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="360" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="363" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="363" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="384" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="387" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="390" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="390" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="233" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="411" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="414" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="417" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="417" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="438" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="441" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="444" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="444" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9992,7 +11723,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10066,7 +11797,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="H4" t="s">
         <v>354</v>
@@ -10137,7 +11868,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -10199,7 +11930,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10255,7 +11986,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10311,7 +12042,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10363,6 +12094,9 @@
       <c r="E9" t="s">
         <v>309</v>
       </c>
+      <c r="F9" t="s">
+        <v>327</v>
+      </c>
       <c r="I9" t="s">
         <v>396</v>
       </c>
@@ -10400,6 +12134,9 @@
       </c>
       <c r="E10" t="s">
         <v>355</v>
+      </c>
+      <c r="F10" t="s">
+        <v>328</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8062" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8986" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1463,6 +1463,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1482,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="261" x14ac:knownFonts="1">
+  <fonts count="291" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3116,8 +3128,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="451">
+  <fills count="505">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5669,8 +5869,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="463">
+  <borders count="519">
     <border>
       <left/>
       <right/>
@@ -10326,6 +10832,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10333,7 +11403,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11168,49 +12238,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="438" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="438" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="441" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="441" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="444" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="444" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="444" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="444" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="263" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="266" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="465" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="468" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="471" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="471" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="495" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="498" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11643,7 +12803,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>468</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -11723,7 +12883,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -11797,7 +12957,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
         <v>354</v>
@@ -11868,7 +13028,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -11930,7 +13090,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -11986,7 +13146,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -12042,7 +13202,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -12095,7 +13255,7 @@
         <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="I9" t="s">
         <v>396</v>
@@ -12136,7 +13296,7 @@
         <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -12173,6 +13333,9 @@
       <c r="E11" t="s">
         <v>277</v>
       </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -12205,6 +13368,9 @@
       <c r="E12" t="s">
         <v>266</v>
       </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -12234,6 +13400,9 @@
       <c r="E13" t="s">
         <v>319</v>
       </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -12438,7 +13607,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>467</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
@@ -12452,7 +13621,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
@@ -12466,7 +13635,7 @@
         <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -12480,7 +13649,7 @@
         <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -12491,7 +13660,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -12502,7 +13671,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -12513,7 +13682,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -12524,7 +13693,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -12535,7 +13704,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -12546,7 +13715,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -12557,7 +13726,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>263</v>
@@ -12567,6 +13736,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>333</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8986" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9912" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1488,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="291" x14ac:knownFonts="1">
+  <fonts count="321" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3316,8 +3322,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="505">
+  <fills count="559">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6175,8 +6369,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="519">
+  <borders count="575">
     <border>
       <left/>
       <right/>
@@ -11396,6 +11896,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11403,7 +12467,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="347">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12328,49 +13392,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="278" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="281" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="495" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="495" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="498" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="498" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="293" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="294" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="296" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="519" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="522" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="525" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="525" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="546" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="549" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="552" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="552" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12695,7 +13849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14087,7 +15241,7 @@
         <v>432</v>
       </c>
       <c r="U77" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78">
@@ -14095,7 +15249,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -14103,7 +15257,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -14111,7 +15265,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81">
@@ -14119,7 +15273,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -14127,7 +15281,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -14135,7 +15289,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84">
@@ -14143,7 +15297,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
@@ -14151,7 +15305,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -14159,7 +15313,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -14167,7 +15321,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -14175,7 +15329,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -14183,7 +15337,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90">
@@ -14191,7 +15345,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
@@ -14199,7 +15353,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -14207,116 +15361,121 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9912" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10376" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="321" x14ac:knownFonts="1">
+  <fonts count="336" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3510,8 +3513,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="559">
+  <fills count="586">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6675,8 +6772,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="575">
+  <borders count="603">
     <border>
       <left/>
       <right/>
@@ -12460,6 +12710,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12467,7 +12999,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="362">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13482,49 +14014,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="546" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="546" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="549" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="552" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="552" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13849,7 +14426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15185,7 +15762,7 @@
         <v>307</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71">
@@ -15193,7 +15770,7 @@
         <v>425</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -15201,7 +15778,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -15209,7 +15786,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -15217,7 +15794,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -15225,7 +15802,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -15233,7 +15810,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -15241,7 +15818,7 @@
         <v>432</v>
       </c>
       <c r="U77" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -15249,7 +15826,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79">
@@ -15257,7 +15834,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -15265,7 +15842,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -15273,7 +15850,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82">
@@ -15281,7 +15858,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -15289,7 +15866,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -15297,7 +15874,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85">
@@ -15305,7 +15882,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86">
@@ -15313,7 +15890,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -15321,7 +15898,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -15329,7 +15906,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -15337,7 +15914,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -15345,7 +15922,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91">
@@ -15353,7 +15930,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
@@ -15361,121 +15938,126 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10376" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10841" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1484,6 +1484,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1494,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="336" x14ac:knownFonts="1">
+  <fonts count="351" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3607,8 +3610,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="586">
+  <fills count="613">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6925,8 +7022,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="603">
+  <borders count="631">
     <border>
       <left/>
       <right/>
@@ -12992,6 +13242,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12999,7 +13531,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="377">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14059,49 +14591,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="323" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="326" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="573" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="579" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14759,7 +15336,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -14821,7 +15398,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -14877,7 +15454,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -14933,7 +15510,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -14986,7 +15563,7 @@
         <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>470</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
         <v>396</v>
@@ -15027,7 +15604,7 @@
         <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>470</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -15065,7 +15642,7 @@
         <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -15100,7 +15677,7 @@
         <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -15132,7 +15709,7 @@
         <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -15162,6 +15739,9 @@
       </c>
       <c r="E14" t="s">
         <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>328</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10841" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11307" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1487,6 +1487,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1497,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="351" x14ac:knownFonts="1">
+  <fonts count="366" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3704,8 +3707,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="613">
+  <fills count="640">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7175,8 +7272,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="631">
+  <borders count="659">
     <border>
       <left/>
       <right/>
@@ -13524,6 +13774,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13531,7 +14063,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14636,49 +15168,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="341" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="603" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="606" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="627" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="630" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="633" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="633" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15744,7 +16321,7 @@
         <v>328</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>475</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -15773,7 +16350,7 @@
         <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -15799,7 +16376,7 @@
         <v>320</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>255</v>
@@ -15822,7 +16399,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -15839,7 +16416,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -15856,7 +16433,7 @@
         <v>299</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -15873,7 +16450,7 @@
         <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -15890,7 +16467,7 @@
         <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -15907,7 +16484,7 @@
         <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -15922,6 +16499,9 @@
       </c>
       <c r="E23" t="s">
         <v>293</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11307" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11775" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1490,6 +1490,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1503,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="366" x14ac:knownFonts="1">
+  <fonts count="381" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3801,8 +3807,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="640">
+  <fills count="667">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7425,8 +7525,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="659">
+  <borders count="687">
     <border>
       <left/>
       <right/>
@@ -14056,6 +14309,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14063,7 +14598,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="407">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15213,49 +15748,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="627" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="627" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="630" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="630" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="633" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="633" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="633" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="633" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="654" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="660" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="660" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15759,7 +16339,7 @@
         <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>476</v>
       </c>
       <c r="D3" t="s">
         <v>370</v>
@@ -15833,7 +16413,7 @@
         <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -15904,7 +16484,7 @@
         <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
         <v>456</v>
@@ -15969,7 +16549,7 @@
         <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>393</v>
@@ -16025,7 +16605,7 @@
         <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
         <v>371</v>
@@ -16081,7 +16661,7 @@
         <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
         <v>372</v>
@@ -16134,7 +16714,7 @@
         <v>384</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>309</v>
@@ -16175,7 +16755,7 @@
         <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>355</v>
@@ -16213,7 +16793,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>277</v>
@@ -16248,7 +16828,7 @@
         <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
         <v>266</v>
@@ -16280,7 +16860,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
         <v>319</v>
@@ -16312,7 +16892,7 @@
         <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>267</v>
@@ -16344,7 +16924,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>268</v>
@@ -16370,7 +16950,7 @@
         <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
         <v>320</v>
@@ -16393,7 +16973,7 @@
         <v>427</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -16410,7 +16990,7 @@
         <v>428</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>430</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -16427,7 +17007,7 @@
         <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>299</v>
@@ -16444,7 +17024,7 @@
         <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>300</v>
@@ -16461,7 +17041,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -16478,7 +17058,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
@@ -16495,7 +17075,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
@@ -16512,7 +17092,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
@@ -16526,7 +17106,7 @@
         <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -16540,7 +17120,7 @@
         <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>431</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -16551,7 +17131,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -16562,7 +17142,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -16573,7 +17153,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -16584,7 +17164,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -16595,7 +17175,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -16606,7 +17186,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -16617,7 +17197,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>263</v>
@@ -16628,7 +17208,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>333</v>
@@ -16638,6 +17218,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>310</v>
       </c>
@@ -16646,6 +17229,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>264</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11775" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12244" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="381" x14ac:knownFonts="1">
+  <fonts count="396" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3901,8 +3904,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="667">
+  <fills count="694">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7678,8 +7775,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="687">
+  <borders count="715">
     <border>
       <left/>
       <right/>
@@ -7971,6 +8221,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -14598,7 +15130,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15793,49 +16325,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="371" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="654" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="654" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="660" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="660" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="660" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="660" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="684" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16160,7 +16737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17372,7 +17949,7 @@
         <v>271</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54">
@@ -17380,7 +17957,7 @@
         <v>295</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -17388,7 +17965,7 @@
         <v>296</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -17396,7 +17973,7 @@
         <v>297</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -17404,7 +17981,7 @@
         <v>306</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -17412,7 +17989,7 @@
         <v>315</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -17420,7 +17997,7 @@
         <v>340</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -17428,7 +18005,7 @@
         <v>312</v>
       </c>
       <c r="U60" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -17436,7 +18013,7 @@
         <v>313</v>
       </c>
       <c r="U61" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62">
@@ -17444,7 +18021,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63">
@@ -17452,7 +18029,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64">
@@ -17460,7 +18037,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65">
@@ -17468,7 +18045,7 @@
         <v>316</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -17476,7 +18053,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -17484,7 +18061,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -17492,7 +18069,7 @@
         <v>317</v>
       </c>
       <c r="U68" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -17500,7 +18077,7 @@
         <v>424</v>
       </c>
       <c r="U69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -17508,7 +18085,7 @@
         <v>307</v>
       </c>
       <c r="U70" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71">
@@ -17516,7 +18093,7 @@
         <v>425</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72">
@@ -17524,7 +18101,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -17532,7 +18109,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -17540,7 +18117,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -17548,7 +18125,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -17556,7 +18133,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -17564,7 +18141,7 @@
         <v>432</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -17572,7 +18149,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -17580,7 +18157,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80">
@@ -17588,7 +18165,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -17596,7 +18173,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -17604,7 +18181,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
@@ -17612,7 +18189,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -17620,7 +18197,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -17628,7 +18205,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86">
@@ -17636,7 +18213,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
@@ -17644,7 +18221,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -17652,7 +18229,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -17660,7 +18237,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -17668,7 +18245,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -17676,7 +18253,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92">
@@ -17684,126 +18261,131 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12244" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12713" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1506,7 +1506,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="396" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3998,8 +3998,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="694">
+  <fills count="721">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7928,8 +8022,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="715">
+  <borders count="743">
     <border>
       <left/>
       <right/>
@@ -8221,6 +8468,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -15130,7 +15659,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16370,49 +16899,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="681" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="684" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="684" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="687" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="687" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="708" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="711" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="714" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="714" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12713" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13188" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1499,6 +1500,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="427" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4092,8 +4108,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="721">
+  <fills count="748">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8175,8 +8292,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="743">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -8468,6 +8738,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -15659,7 +16211,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="453">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16944,49 +17496,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="708" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="708" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="711" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="711" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="714" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="714" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="714" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="714" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="732" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="738" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="741" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="744" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="744" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17311,7 +17911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17330,75 +17930,78 @@
         <v>376</v>
       </c>
       <c r="C1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>350</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>414</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>427</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>428</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>410</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>429</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17410,1556 +18013,1571 @@
         <v>377</v>
       </c>
       <c r="C2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>468</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>352</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>318</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>389</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>433</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>434</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>435</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>256</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>220</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>439</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>440</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>386</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>411</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>173</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>178</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>448</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
       </c>
       <c r="C3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" t="s">
         <v>476</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>370</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>353</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>344</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>337</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>436</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>243</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>221</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>416</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>441</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>387</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>412</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>174</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>179</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>369</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>186</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>392</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>469</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>354</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>241</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>338</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>244</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>222</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>417</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>442</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>363</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>413</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>175</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>180</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>186</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>449</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>380</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>477</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>456</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>339</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>474</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>351</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>482</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>245</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>223</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>418</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>443</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>364</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>176</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>181</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>187</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>450</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>393</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>466</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>246</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>403</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>419</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>366</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>462</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>182</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>188</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>451</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>227</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>371</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>465</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>318</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>247</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>438</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>420</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>365</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>463</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>183</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>189</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>452</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>321</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>372</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>331</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>248</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>421</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>367</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>177</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>184</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>453</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>384</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>309</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>332</v>
       </c>
-      <c r="I9" t="s">
-        <v>396</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>249</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>422</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>368</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>212</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>191</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>318</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>355</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>470</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>396</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>437</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>250</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>423</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>260</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>192</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
         <v>258</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>277</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>325</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>458</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>251</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>261</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>262</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>322</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>266</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>326</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>252</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
         <v>344</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>319</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>327</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>257</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>329</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>267</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>328</v>
       </c>
-      <c r="I14" t="s">
-        <v>475</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>253</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>268</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>475</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>254</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>390</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>320</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>255</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" t="s">
         <v>391</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>385</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" t="s">
         <v>430</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>385</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>299</v>
       </c>
-      <c r="I19" t="s">
-        <v>404</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>300</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>404</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" t="s">
         <v>259</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>301</v>
       </c>
-      <c r="I21" t="s">
-        <v>457</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>302</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>457</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>324</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>293</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>282</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>467</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" t="s">
+        <v>285</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>230</v>
       </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
-      <c r="E26" t="s">
-        <v>285</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>229</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>269</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>431</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>286</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>287</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>219</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>278</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>288</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>263</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>333</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>310</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>264</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>311</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>270</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>215</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>292</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>303</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>304</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>346</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>345</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>214</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>323</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>342</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>373</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>305</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>359</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>334</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>271</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>295</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>296</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>297</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>306</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>315</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>340</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>312</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>313</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>374</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>375</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>348</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>316</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>272</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>356</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>317</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>424</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>307</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>425</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>265</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>347</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>289</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>294</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>432</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>335</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>273</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>284</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>290</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>279</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>274</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>291</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>275</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>276</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>308</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>314</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>298</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>343</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>280</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>281</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13188" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13664" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1515,6 +1515,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="427" x14ac:knownFonts="1">
+  <fonts count="443" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4209,8 +4215,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="748">
+  <fills count="775">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8445,8 +8552,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="771">
+  <borders count="799">
     <border>
       <left/>
       <right/>
@@ -8738,6 +8998,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16211,7 +16753,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="469">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17541,52 +18083,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="732" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="732" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="738" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="738" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="741" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="741" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="744" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="744" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="744" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="744" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="759" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="765" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="768" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="771" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="771" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17911,7 +18501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18013,7 +18603,7 @@
         <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -19125,7 +19715,7 @@
         <v>359</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
@@ -19133,7 +19723,7 @@
         <v>334</v>
       </c>
       <c r="V52" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -19141,7 +19731,7 @@
         <v>271</v>
       </c>
       <c r="V53" t="s">
-        <v>478</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54">
@@ -19149,7 +19739,7 @@
         <v>295</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
@@ -19157,7 +19747,7 @@
         <v>296</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -19165,7 +19755,7 @@
         <v>297</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -19173,7 +19763,7 @@
         <v>306</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -19181,7 +19771,7 @@
         <v>315</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -19189,7 +19779,7 @@
         <v>340</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -19197,7 +19787,7 @@
         <v>312</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -19205,7 +19795,7 @@
         <v>313</v>
       </c>
       <c r="V61" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -19213,7 +19803,7 @@
         <v>374</v>
       </c>
       <c r="V62" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63">
@@ -19221,7 +19811,7 @@
         <v>375</v>
       </c>
       <c r="V63" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64">
@@ -19229,7 +19819,7 @@
         <v>348</v>
       </c>
       <c r="V64" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65">
@@ -19237,7 +19827,7 @@
         <v>316</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66">
@@ -19245,7 +19835,7 @@
         <v>272</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -19253,7 +19843,7 @@
         <v>356</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -19261,7 +19851,7 @@
         <v>317</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -19269,7 +19859,7 @@
         <v>424</v>
       </c>
       <c r="V69" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -19277,7 +19867,7 @@
         <v>307</v>
       </c>
       <c r="V70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -19285,7 +19875,7 @@
         <v>425</v>
       </c>
       <c r="V71" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72">
@@ -19293,7 +19883,7 @@
         <v>265</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73">
@@ -19301,7 +19891,7 @@
         <v>347</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -19309,7 +19899,7 @@
         <v>283</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -19317,7 +19907,7 @@
         <v>289</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -19325,7 +19915,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -19333,7 +19923,7 @@
         <v>432</v>
       </c>
       <c r="V77" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -19341,7 +19931,7 @@
         <v>335</v>
       </c>
       <c r="V78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -19349,7 +19939,7 @@
         <v>273</v>
       </c>
       <c r="V79" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -19357,7 +19947,7 @@
         <v>284</v>
       </c>
       <c r="V80" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81">
@@ -19365,7 +19955,7 @@
         <v>290</v>
       </c>
       <c r="V81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -19373,7 +19963,7 @@
         <v>279</v>
       </c>
       <c r="V82" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -19381,7 +19971,7 @@
         <v>274</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84">
@@ -19389,7 +19979,7 @@
         <v>291</v>
       </c>
       <c r="V84" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -19397,7 +19987,7 @@
         <v>275</v>
       </c>
       <c r="V85" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -19405,7 +19995,7 @@
         <v>276</v>
       </c>
       <c r="V86" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87">
@@ -19413,7 +20003,7 @@
         <v>308</v>
       </c>
       <c r="V87" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88">
@@ -19421,7 +20011,7 @@
         <v>314</v>
       </c>
       <c r="V88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -19429,7 +20019,7 @@
         <v>298</v>
       </c>
       <c r="V89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -19437,7 +20027,7 @@
         <v>343</v>
       </c>
       <c r="V90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -19445,7 +20035,7 @@
         <v>280</v>
       </c>
       <c r="V91" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -19453,131 +20043,136 @@
         <v>281</v>
       </c>
       <c r="V92" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13664" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15096" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1521,6 +1521,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="443" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4316,8 +4325,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="775">
+  <fills count="856">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8705,8 +9017,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="799">
+  <borders count="883">
     <border>
       <left/>
       <right/>
@@ -8998,6 +9769,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16753,7 +18370,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="517">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18131,52 +19748,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="759" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="759" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="765" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="765" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="768" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="768" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="771" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="771" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="771" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="771" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="445" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="786" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="449" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="792" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="795" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="798" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="798" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="461" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="813" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="819" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="822" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="825" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="825" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="840" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="846" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="849" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="852" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="852" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18621,7 +20382,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
         <v>318</v>
@@ -18704,7 +20465,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J3" t="s">
         <v>344</v>
@@ -18775,7 +20536,7 @@
         <v>469</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J4" t="s">
         <v>241</v>
@@ -18846,7 +20607,7 @@
         <v>474</v>
       </c>
       <c r="I5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J5" t="s">
         <v>482</v>
@@ -18906,6 +20667,9 @@
       </c>
       <c r="G6" t="s">
         <v>466</v>
+      </c>
+      <c r="I6" t="s">
+        <v>351</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15096" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16535" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1530,6 +1530,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1549,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="491" x14ac:knownFonts="1">
+  <fonts count="539" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4628,8 +4640,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="856">
+  <fills count="937">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9476,8 +9791,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="883">
+  <borders count="967">
     <border>
       <left/>
       <right/>
@@ -9769,6 +10543,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -18370,7 +19990,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="565">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19892,52 +21512,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="840" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="840" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="846" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="846" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="849" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="849" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="852" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="852" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="852" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="852" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="493" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="867" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="873" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="876" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="879" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="879" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="509" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="894" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="513" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="900" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="903" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="906" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="906" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="927" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20262,7 +22026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21130,7 +22894,7 @@
         <v>299</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -21147,7 +22911,7 @@
         <v>300</v>
       </c>
       <c r="J20" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -21164,7 +22928,7 @@
         <v>301</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -21181,7 +22945,7 @@
         <v>302</v>
       </c>
       <c r="J22" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -21198,7 +22962,7 @@
         <v>293</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -21215,7 +22979,7 @@
         <v>282</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -21231,6 +22995,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -21265,7 +23032,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="F28" t="s">
         <v>286</v>
@@ -21276,7 +23043,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>491</v>
       </c>
       <c r="F29" t="s">
         <v>287</v>
@@ -21287,7 +23054,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
         <v>219</v>
@@ -21298,7 +23065,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>278</v>
@@ -21309,7 +23076,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>288</v>
@@ -21320,7 +23087,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>263</v>
@@ -21331,7 +23098,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>333</v>
@@ -21342,7 +23109,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>310</v>
@@ -21353,7 +23120,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>264</v>
@@ -21363,6 +23130,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>311</v>
       </c>
@@ -21371,6 +23141,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>270</v>
       </c>
@@ -21655,7 +23428,7 @@
         <v>347</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74">
@@ -21663,7 +23436,7 @@
         <v>283</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -21671,7 +23444,7 @@
         <v>289</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -21679,7 +23452,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -21687,7 +23460,7 @@
         <v>432</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -21695,7 +23468,7 @@
         <v>335</v>
       </c>
       <c r="V78" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -21703,7 +23476,7 @@
         <v>273</v>
       </c>
       <c r="V79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -21711,7 +23484,7 @@
         <v>284</v>
       </c>
       <c r="V80" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -21719,7 +23492,7 @@
         <v>290</v>
       </c>
       <c r="V81" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82">
@@ -21727,7 +23500,7 @@
         <v>279</v>
       </c>
       <c r="V82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -21735,7 +23508,7 @@
         <v>274</v>
       </c>
       <c r="V83" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -21743,7 +23516,7 @@
         <v>291</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85">
@@ -21751,7 +23524,7 @@
         <v>275</v>
       </c>
       <c r="V85" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -21759,7 +23532,7 @@
         <v>276</v>
       </c>
       <c r="V86" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -21767,7 +23540,7 @@
         <v>308</v>
       </c>
       <c r="V87" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88">
@@ -21775,7 +23548,7 @@
         <v>314</v>
       </c>
       <c r="V88" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89">
@@ -21783,7 +23556,7 @@
         <v>298</v>
       </c>
       <c r="V89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -21791,7 +23564,7 @@
         <v>343</v>
       </c>
       <c r="V90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -21799,7 +23572,7 @@
         <v>280</v>
       </c>
       <c r="V91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -21807,136 +23580,141 @@
         <v>281</v>
       </c>
       <c r="V92" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16535" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17018" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1542,6 +1542,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="539" x14ac:knownFonts="1">
+  <fonts count="555" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4943,8 +4949,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="937">
+  <fills count="964">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10250,8 +10357,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="967">
+  <borders count="995">
     <border>
       <left/>
       <right/>
@@ -10543,6 +10803,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -19990,7 +20532,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="581">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21656,52 +22198,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="525" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="531" fillId="927" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="532" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="533" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="534" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="535" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="536" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="537" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="927" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="930" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="948" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="954" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="957" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="960" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="960" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22683,7 +23273,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -22718,7 +23308,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>458</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -22750,7 +23340,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>494</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -22782,7 +23372,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -22810,6 +23400,9 @@
       <c r="J15" t="s">
         <v>475</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -22835,6 +23428,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>255</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,11 +40,11 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
     <definedName name="sound">'#system'!$S$2:$S$5</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17018" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17504" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1548,6 +1548,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1564,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="555" x14ac:knownFonts="1">
+  <fonts count="571" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5050,8 +5059,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="964">
+  <fills count="991">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10510,8 +10620,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="995">
+  <borders count="1023">
     <border>
       <left/>
       <right/>
@@ -10803,6 +11066,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -20532,7 +21077,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="597">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22246,52 +22791,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="948" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="948" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="547" fillId="954" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="548" fillId="957" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="960" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="550" fillId="960" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="954" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="957" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="960" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="960" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="981" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="984" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="987" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="987" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22616,7 +23209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23215,7 +23808,7 @@
         <v>191</v>
       </c>
       <c r="AA9" t="s">
-        <v>238</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
@@ -23253,7 +23846,7 @@
         <v>192</v>
       </c>
       <c r="AA10" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
@@ -23288,7 +23881,7 @@
         <v>262</v>
       </c>
       <c r="AA11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
@@ -23322,6 +23915,9 @@
       <c r="Y12" t="s">
         <v>193</v>
       </c>
+      <c r="AA12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -23354,6 +23950,9 @@
       <c r="Y13" t="s">
         <v>194</v>
       </c>
+      <c r="AA13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -23944,7 +24543,7 @@
         <v>375</v>
       </c>
       <c r="V63" t="s">
-        <v>217</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64">
@@ -23952,7 +24551,7 @@
         <v>348</v>
       </c>
       <c r="V64" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65">
@@ -23960,7 +24559,7 @@
         <v>316</v>
       </c>
       <c r="V65" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66">
@@ -23968,7 +24567,7 @@
         <v>272</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67">
@@ -23976,7 +24575,7 @@
         <v>356</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -23984,7 +24583,7 @@
         <v>317</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -23992,7 +24591,7 @@
         <v>424</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -24000,7 +24599,7 @@
         <v>307</v>
       </c>
       <c r="V70" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -24008,7 +24607,7 @@
         <v>425</v>
       </c>
       <c r="V71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -24016,7 +24615,7 @@
         <v>265</v>
       </c>
       <c r="V72" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73">
@@ -24024,7 +24623,7 @@
         <v>347</v>
       </c>
       <c r="V73" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74">
@@ -24032,7 +24631,7 @@
         <v>283</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75">
@@ -24040,7 +24639,7 @@
         <v>289</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -24048,7 +24647,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -24056,7 +24655,7 @@
         <v>432</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -24064,7 +24663,7 @@
         <v>335</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -24072,7 +24671,7 @@
         <v>273</v>
       </c>
       <c r="V79" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -24080,7 +24679,7 @@
         <v>284</v>
       </c>
       <c r="V80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -24088,7 +24687,7 @@
         <v>290</v>
       </c>
       <c r="V81" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -24096,7 +24695,7 @@
         <v>279</v>
       </c>
       <c r="V82" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83">
@@ -24104,7 +24703,7 @@
         <v>274</v>
       </c>
       <c r="V83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -24112,7 +24711,7 @@
         <v>291</v>
       </c>
       <c r="V84" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -24120,7 +24719,7 @@
         <v>275</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86">
@@ -24128,7 +24727,7 @@
         <v>276</v>
       </c>
       <c r="V86" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -24136,7 +24735,7 @@
         <v>308</v>
       </c>
       <c r="V87" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -24144,7 +24743,7 @@
         <v>314</v>
       </c>
       <c r="V88" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89">
@@ -24152,7 +24751,7 @@
         <v>298</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90">
@@ -24160,7 +24759,7 @@
         <v>343</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -24168,7 +24767,7 @@
         <v>280</v>
       </c>
       <c r="V91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -24176,141 +24775,146 @@
         <v>281</v>
       </c>
       <c r="V92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17504" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17998" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1557,6 +1558,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1592,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="571" x14ac:knownFonts="1">
+  <fonts count="587" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5160,8 +5188,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="991">
+  <fills count="1018">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10773,8 +10902,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1023">
+  <borders count="1051">
     <border>
       <left/>
       <right/>
@@ -11066,6 +11348,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -21077,7 +21641,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="613">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22839,52 +23403,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="557" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="558" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="975" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="981" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="564" fillId="984" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="987" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="987" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="981" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="984" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="987" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="987" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="993" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="996" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="1002" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="1005" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="1008" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1011" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="1014" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1014" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23209,7 +23821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23258,48 +23870,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>498</v>
+      </c>
+      <c r="N1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>242</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>414</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>427</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>362</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>410</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>429</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -23341,48 +23956,51 @@
         <v>433</v>
       </c>
       <c r="M2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>435</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>256</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>220</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>415</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>439</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>440</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>386</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>411</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>173</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>185</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>448</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -23409,7 +24027,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>499</v>
       </c>
       <c r="I3" t="s">
         <v>352</v>
@@ -23423,43 +24041,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>502</v>
+      </c>
+      <c r="O3" t="s">
         <v>436</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>243</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>416</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>441</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>412</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>174</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>369</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>186</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -23482,6 +24103,9 @@
       <c r="G4" t="s">
         <v>469</v>
       </c>
+      <c r="H4" t="s">
+        <v>500</v>
+      </c>
       <c r="I4" t="s">
         <v>353</v>
       </c>
@@ -23494,43 +24118,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>503</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>244</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>222</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>417</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>442</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>363</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>413</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>175</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>186</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>449</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -23562,40 +24189,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>245</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>418</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>443</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>364</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>176</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>181</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>187</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>450</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -23624,37 +24251,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>246</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>403</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>419</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>366</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>462</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>188</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>451</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23680,37 +24307,37 @@
       <c r="L7" t="s">
         <v>318</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>247</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>438</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>420</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>365</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>463</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>183</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>189</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>452</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -23736,34 +24363,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>248</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>421</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>367</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>177</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>190</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>453</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -23789,25 +24416,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>249</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>422</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>368</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>212</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>191</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>496</v>
       </c>
     </row>
@@ -23830,22 +24457,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>437</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>423</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>260</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>192</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>497</v>
       </c>
     </row>
@@ -23868,19 +24495,19 @@
       <c r="L11" t="s">
         <v>493</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>251</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>261</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>262</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>238</v>
       </c>
     </row>
@@ -23903,25 +24530,25 @@
       <c r="L12" t="s">
         <v>458</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>252</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>193</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>498</v>
       </c>
       <c r="D13" t="s">
         <v>344</v>
@@ -23938,25 +24565,25 @@
       <c r="L13" t="s">
         <v>494</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>257</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>329</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>194</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -23973,22 +24600,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>253</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -24002,22 +24629,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>254</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
         <v>390</v>
@@ -24031,19 +24658,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>255</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>391</v>
@@ -24054,16 +24681,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
         <v>430</v>
@@ -24074,13 +24701,13 @@
       <c r="J18" t="s">
         <v>385</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -24091,13 +24718,13 @@
       <c r="J19" t="s">
         <v>492</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -24108,13 +24735,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="D21" t="s">
         <v>259</v>
@@ -24125,13 +24752,13 @@
       <c r="J21" t="s">
         <v>404</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -24142,13 +24769,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>324</v>
@@ -24159,13 +24786,13 @@
       <c r="J23" t="s">
         <v>457</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -24176,13 +24803,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>467</v>
@@ -24193,13 +24820,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>228</v>
@@ -24207,13 +24834,13 @@
       <c r="F26" t="s">
         <v>285</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="D27" t="s">
         <v>229</v>
@@ -24221,18 +24848,21 @@
       <c r="F27" t="s">
         <v>269</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
       <c r="D28" t="s">
         <v>490</v>
       </c>
       <c r="F28" t="s">
         <v>286</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -24243,7 +24873,7 @@
       <c r="F29" t="s">
         <v>287</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24254,7 +24884,7 @@
       <c r="F30" t="s">
         <v>219</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24265,7 +24895,7 @@
       <c r="F31" t="s">
         <v>278</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -24276,7 +24906,7 @@
       <c r="F32" t="s">
         <v>288</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -24287,7 +24917,7 @@
       <c r="F33" t="s">
         <v>263</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -24298,7 +24928,7 @@
       <c r="F34" t="s">
         <v>333</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -24309,7 +24939,7 @@
       <c r="F35" t="s">
         <v>310</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -24320,7 +24950,7 @@
       <c r="F36" t="s">
         <v>264</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -24331,7 +24961,7 @@
       <c r="F37" t="s">
         <v>311</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>444</v>
       </c>
     </row>
@@ -24342,7 +24972,7 @@
       <c r="F38" t="s">
         <v>270</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>405</v>
       </c>
     </row>
@@ -24350,7 +24980,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -24358,7 +24988,7 @@
       <c r="F40" t="s">
         <v>215</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -24366,7 +24996,7 @@
       <c r="F41" t="s">
         <v>292</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -24374,7 +25004,7 @@
       <c r="F42" t="s">
         <v>303</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -24382,7 +25012,7 @@
       <c r="F43" t="s">
         <v>304</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24390,7 +25020,7 @@
       <c r="F44" t="s">
         <v>346</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -24398,7 +25028,7 @@
       <c r="F45" t="s">
         <v>345</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>459</v>
       </c>
     </row>
@@ -24406,7 +25036,7 @@
       <c r="F46" t="s">
         <v>214</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24414,7 +25044,7 @@
       <c r="F47" t="s">
         <v>323</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -24422,7 +25052,7 @@
       <c r="F48" t="s">
         <v>342</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -24430,7 +25060,7 @@
       <c r="F49" t="s">
         <v>373</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -24438,7 +25068,7 @@
       <c r="F50" t="s">
         <v>305</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24446,475 +25076,485 @@
       <c r="F51" t="s">
         <v>359</v>
       </c>
-      <c r="V51" t="s">
-        <v>485</v>
+      <c r="W51" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>334</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>271</v>
       </c>
-      <c r="V53" t="s">
-        <v>349</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>295</v>
       </c>
-      <c r="V54" t="s">
-        <v>478</v>
+      <c r="W54" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>296</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>297</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>306</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>315</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>340</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>312</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>313</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>374</v>
       </c>
-      <c r="V62" t="s">
-        <v>455</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>375</v>
       </c>
-      <c r="V63" t="s">
-        <v>495</v>
+      <c r="W63" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>348</v>
       </c>
-      <c r="V64" t="s">
-        <v>217</v>
+      <c r="W64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>316</v>
       </c>
-      <c r="V65" t="s">
-        <v>394</v>
+      <c r="W65" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>272</v>
       </c>
-      <c r="V66" t="s">
-        <v>460</v>
+      <c r="W66" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>356</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>317</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>424</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>307</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>425</v>
       </c>
-      <c r="V71" t="s">
-        <v>200</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>265</v>
       </c>
-      <c r="V72" t="s">
-        <v>201</v>
+      <c r="W72" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>347</v>
       </c>
-      <c r="V73" t="s">
-        <v>473</v>
+      <c r="W73" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="V74" t="s">
-        <v>489</v>
+      <c r="W74" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>289</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>294</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>432</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>335</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>273</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>284</v>
       </c>
-      <c r="V80" t="s">
-        <v>202</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>290</v>
       </c>
-      <c r="V81" t="s">
-        <v>203</v>
+      <c r="W81" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>279</v>
       </c>
-      <c r="V82" t="s">
-        <v>472</v>
+      <c r="W82" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>274</v>
       </c>
-      <c r="V83" t="s">
-        <v>204</v>
+      <c r="W83" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>291</v>
       </c>
-      <c r="V84" t="s">
-        <v>205</v>
+      <c r="W84" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>275</v>
       </c>
-      <c r="V85" t="s">
-        <v>218</v>
+      <c r="W85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>276</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>308</v>
       </c>
-      <c r="V87" t="s">
-        <v>206</v>
+      <c r="W87" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>314</v>
       </c>
-      <c r="V88" t="s">
-        <v>446</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>298</v>
       </c>
-      <c r="V89" t="s">
-        <v>454</v>
+      <c r="W89" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>343</v>
       </c>
-      <c r="V90" t="s">
-        <v>207</v>
+      <c r="W90" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>280</v>
       </c>
-      <c r="V91" t="s">
-        <v>208</v>
+      <c r="W91" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>281</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17998" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18492" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1592,7 +1592,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="587" x14ac:knownFonts="1">
+  <fonts count="603" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5289,8 +5289,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1018">
+  <fills count="1045">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11055,8 +11156,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1051">
+  <borders count="1079">
     <border>
       <left/>
       <right/>
@@ -11348,6 +11602,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -21641,7 +22177,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="613">
+  <cellXfs count="629">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23451,52 +23987,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="993" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="572" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="996" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="573" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="574" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="1002" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1002" fontId="575" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="1005" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="577" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="1008" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="1011" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="1014" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="1014" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="1008" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1011" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1014" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1014" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1035" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1038" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18492" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19497" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1585,6 +1586,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="603" x14ac:knownFonts="1">
+  <fonts count="635" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5390,8 +5421,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1045">
+  <fills count="1099">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11309,8 +11542,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1079">
+  <borders count="1135">
     <border>
       <left/>
       <right/>
@@ -11602,6 +12141,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -22177,7 +23280,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="629">
+  <cellXfs count="661">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24035,52 +25138,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="589" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="590" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1029" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="1035" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="1038" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1035" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1038" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1041" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1041" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="605" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="606" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1056" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="609" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1062" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1065" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1068" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1068" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1083" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1089" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1092" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1095" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1095" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24405,7 +25604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24427,78 +25626,81 @@
         <v>479</v>
       </c>
       <c r="D1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>350</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>336</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>498</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>198</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>414</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>428</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>362</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>410</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>429</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -24513,79 +25715,82 @@
         <v>484</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>468</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>488</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>318</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>389</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>433</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>501</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>434</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>435</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>256</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>220</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>415</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>439</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>440</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>386</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>411</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>173</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>185</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>448</v>
       </c>
-      <c r="AB2" t="s">
-        <v>231</v>
+      <c r="AC2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3">
@@ -24599,1546 +25804,1573 @@
         <v>481</v>
       </c>
       <c r="D3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" t="s">
         <v>476</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>370</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>499</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>352</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>344</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>502</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>436</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>243</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>221</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>416</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>441</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>387</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>412</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>174</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>369</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>186</v>
       </c>
-      <c r="AB3" t="s">
-        <v>232</v>
+      <c r="AC3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>392</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>469</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>500</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>353</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>241</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>338</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>503</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>244</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>222</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>417</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>442</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>363</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>413</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>175</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>186</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>449</v>
       </c>
-      <c r="AB4" t="s">
-        <v>233</v>
+      <c r="AC4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>380</v>
       </c>
       <c r="D5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" t="s">
         <v>477</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>456</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>339</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>474</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>354</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>482</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>245</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>223</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>418</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>443</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>364</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>176</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>181</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>187</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>450</v>
       </c>
-      <c r="AB5" t="s">
-        <v>234</v>
+      <c r="AC5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>381</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>393</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>466</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>351</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>246</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>419</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>366</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>462</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>182</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>451</v>
       </c>
-      <c r="AB6" t="s">
-        <v>235</v>
+      <c r="AC6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>227</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>371</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>465</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>318</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>247</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>438</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>420</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>365</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>463</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>183</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>189</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>452</v>
       </c>
-      <c r="AB7" t="s">
-        <v>236</v>
+      <c r="AC7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>321</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>372</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>331</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>248</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>421</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>367</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>177</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>184</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>190</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>453</v>
       </c>
-      <c r="AB8" t="s">
-        <v>237</v>
+      <c r="AC8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>384</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>309</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>332</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>249</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>422</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>368</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>212</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>191</v>
       </c>
-      <c r="AB9" t="s">
-        <v>496</v>
+      <c r="AC9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" t="s">
         <v>318</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>355</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>470</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>396</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>437</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>250</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>423</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>192</v>
       </c>
-      <c r="AB10" t="s">
-        <v>497</v>
+      <c r="AC10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>258</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>277</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>325</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>493</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>251</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>261</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>262</v>
       </c>
-      <c r="AB11" t="s">
-        <v>238</v>
+      <c r="AC11" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" t="s">
         <v>322</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>266</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>326</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>458</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>252</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>193</v>
       </c>
-      <c r="AB12" t="s">
-        <v>239</v>
+      <c r="AC12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>344</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>319</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>327</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>494</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>257</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>329</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>194</v>
       </c>
-      <c r="AB13" t="s">
-        <v>240</v>
+      <c r="AC13" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>267</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>328</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>253</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>195</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>268</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>475</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>254</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>196</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>390</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>320</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>255</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>197</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
         <v>391</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>483</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>414</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>430</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>385</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>427</v>
-      </c>
-      <c r="D19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>299</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>492</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>300</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" t="s">
         <v>259</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>301</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>404</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>302</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" t="s">
         <v>324</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>293</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>457</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>282</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>467</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>228</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>285</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>229</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>269</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" t="s">
+        <v>490</v>
+      </c>
+      <c r="G28" t="s">
+        <v>286</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>230</v>
       </c>
-      <c r="D28" t="s">
-        <v>490</v>
-      </c>
-      <c r="F28" t="s">
-        <v>286</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>491</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>287</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>431</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>219</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>278</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>288</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>263</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>333</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>310</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>264</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>311</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>270</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>215</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>292</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>303</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>304</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>346</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>345</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>214</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>323</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>342</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>373</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>305</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>359</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>334</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>271</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>295</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>296</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>297</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>306</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>315</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>340</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>312</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>374</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>348</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>316</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>272</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>356</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>317</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>424</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>307</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>425</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>265</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>347</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>283</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>289</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>294</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>432</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>335</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>273</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>290</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>274</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>291</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>275</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>276</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>308</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>314</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>343</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>280</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>281</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,11 +40,11 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
     <definedName name="sound">'#system'!$U$2:$U$5</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19497" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20006" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1616,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1635,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="635" x14ac:knownFonts="1">
+  <fonts count="651" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5623,8 +5635,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1099">
+  <fills count="1126">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11848,8 +11961,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1135">
+  <borders count="1163">
     <border>
       <left/>
       <right/>
@@ -12141,6 +12407,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -23280,7 +23828,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="661">
+  <cellXfs count="677">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25234,52 +25782,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="621" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="622" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1083" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1083" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="624" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="625" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="627" fillId="1089" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="628" fillId="1092" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="629" fillId="1095" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="630" fillId="1095" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="631" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="632" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="633" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1089" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1092" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1095" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1095" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1110" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1116" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1119" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1122" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1122" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25604,7 +26200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26376,7 +26972,7 @@
         <v>194</v>
       </c>
       <c r="AC13" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14">
@@ -26411,7 +27007,7 @@
         <v>195</v>
       </c>
       <c r="AC14" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15">
@@ -26443,7 +27039,7 @@
         <v>196</v>
       </c>
       <c r="AC15" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16">
@@ -26472,7 +27068,7 @@
         <v>197</v>
       </c>
       <c r="AC16" t="s">
-        <v>238</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17">
@@ -26495,7 +27091,7 @@
         <v>483</v>
       </c>
       <c r="AC17" t="s">
-        <v>239</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18">
@@ -26515,7 +27111,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>240</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19">
@@ -26534,6 +27130,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -26551,6 +27150,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -26568,6 +27170,9 @@
       <c r="X21" t="s">
         <v>504</v>
       </c>
+      <c r="AC21" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -27117,7 +27722,7 @@
         <v>273</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80">
@@ -27125,7 +27730,7 @@
         <v>284</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -27133,7 +27738,7 @@
         <v>290</v>
       </c>
       <c r="X81" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -27141,7 +27746,7 @@
         <v>279</v>
       </c>
       <c r="X82" t="s">
-        <v>506</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -27149,7 +27754,7 @@
         <v>274</v>
       </c>
       <c r="X83" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84">
@@ -27157,7 +27762,7 @@
         <v>291</v>
       </c>
       <c r="X84" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -27165,7 +27770,7 @@
         <v>275</v>
       </c>
       <c r="X85" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86">
@@ -27173,7 +27778,7 @@
         <v>276</v>
       </c>
       <c r="X86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -27181,7 +27786,7 @@
         <v>308</v>
       </c>
       <c r="X87" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -27189,7 +27794,7 @@
         <v>314</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89">
@@ -27197,7 +27802,7 @@
         <v>298</v>
       </c>
       <c r="X89" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -27205,7 +27810,7 @@
         <v>343</v>
       </c>
       <c r="X90" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -27213,7 +27818,7 @@
         <v>280</v>
       </c>
       <c r="X91" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92">
@@ -27221,156 +27826,161 @@
         <v>281</v>
       </c>
       <c r="X92" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -33,14 +33,14 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20006" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21027" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1628,6 +1628,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1644,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="651" x14ac:knownFonts="1">
+  <fonts count="683" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5736,8 +5745,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1126">
+  <fills count="1180">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12114,8 +12325,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1163">
+  <borders count="1219">
     <border>
       <left/>
       <right/>
@@ -12407,6 +12924,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -23828,7 +24909,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="677">
+  <cellXfs count="709">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25830,52 +26911,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="637" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="638" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1110" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1110" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="640" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="641" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="643" fillId="1116" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="644" fillId="1119" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="1122" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="1122" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1116" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1119" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1122" fontId="645" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1122" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="653" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="654" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1137" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="656" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1140" fontId="657" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1143" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1146" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1149" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1149" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1164" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1170" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1173" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1176" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1176" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26200,7 +27377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27027,7 +28204,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>521</v>
       </c>
       <c r="Q15" t="s">
         <v>254</v>
@@ -27058,6 +28235,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>522</v>
+      </c>
       <c r="Q16" t="s">
         <v>255</v>
       </c>
@@ -27085,7 +28265,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>523</v>
       </c>
       <c r="AA17" t="s">
         <v>483</v>
@@ -27108,7 +28288,7 @@
         <v>385</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>520</v>
@@ -27128,7 +28308,7 @@
         <v>492</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>238</v>
@@ -27148,7 +28328,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>239</v>
@@ -27168,7 +28348,7 @@
         <v>404</v>
       </c>
       <c r="X21" t="s">
-        <v>504</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>240</v>
@@ -27188,7 +28368,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
@@ -27205,7 +28385,7 @@
         <v>457</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -27222,7 +28402,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -27239,7 +28419,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -27253,7 +28433,7 @@
         <v>285</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -27267,7 +28447,7 @@
         <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -27281,7 +28461,7 @@
         <v>286</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29">
@@ -27295,7 +28475,7 @@
         <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -27306,7 +28486,7 @@
         <v>219</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -27317,7 +28497,7 @@
         <v>278</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -27328,7 +28508,7 @@
         <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -27339,7 +28519,7 @@
         <v>263</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -27350,7 +28530,7 @@
         <v>333</v>
       </c>
       <c r="X34" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -27361,7 +28541,7 @@
         <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
@@ -27372,7 +28552,7 @@
         <v>264</v>
       </c>
       <c r="X36" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -27383,7 +28563,7 @@
         <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
@@ -27394,7 +28574,7 @@
         <v>270</v>
       </c>
       <c r="X38" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39">
@@ -27402,7 +28582,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40">
@@ -27410,7 +28590,7 @@
         <v>215</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -27418,7 +28598,7 @@
         <v>292</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -27426,7 +28606,7 @@
         <v>303</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -27434,7 +28614,7 @@
         <v>304</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -27442,7 +28622,7 @@
         <v>346</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -27450,7 +28630,7 @@
         <v>345</v>
       </c>
       <c r="X45" t="s">
-        <v>459</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -27458,7 +28638,7 @@
         <v>214</v>
       </c>
       <c r="X46" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47">
@@ -27466,7 +28646,7 @@
         <v>323</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48">
@@ -27474,7 +28654,7 @@
         <v>342</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -27482,7 +28662,7 @@
         <v>373</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -27490,7 +28670,7 @@
         <v>305</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -27498,7 +28678,7 @@
         <v>359</v>
       </c>
       <c r="X51" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -27506,7 +28686,7 @@
         <v>334</v>
       </c>
       <c r="X52" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
@@ -27514,7 +28694,7 @@
         <v>271</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54">
@@ -27522,7 +28702,7 @@
         <v>295</v>
       </c>
       <c r="X54" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -27530,7 +28710,7 @@
         <v>296</v>
       </c>
       <c r="X55" t="s">
-        <v>478</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56">
@@ -27538,7 +28718,7 @@
         <v>297</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
@@ -27546,7 +28726,7 @@
         <v>306</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -27554,7 +28734,7 @@
         <v>315</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -27562,7 +28742,7 @@
         <v>340</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -27570,7 +28750,7 @@
         <v>312</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -27578,7 +28758,7 @@
         <v>313</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -27586,7 +28766,7 @@
         <v>374</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -27594,7 +28774,7 @@
         <v>375</v>
       </c>
       <c r="X63" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -27602,7 +28782,7 @@
         <v>348</v>
       </c>
       <c r="X64" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65">
@@ -27610,7 +28790,7 @@
         <v>316</v>
       </c>
       <c r="X65" t="s">
-        <v>217</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66">
@@ -27618,7 +28798,7 @@
         <v>272</v>
       </c>
       <c r="X66" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67">
@@ -27626,7 +28806,7 @@
         <v>356</v>
       </c>
       <c r="X67" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68">
@@ -27634,7 +28814,7 @@
         <v>317</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69">
@@ -27642,7 +28822,7 @@
         <v>424</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -27650,7 +28830,7 @@
         <v>307</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -27658,7 +28838,7 @@
         <v>425</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -27666,7 +28846,7 @@
         <v>265</v>
       </c>
       <c r="X72" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -27674,7 +28854,7 @@
         <v>347</v>
       </c>
       <c r="X73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
@@ -27682,7 +28862,7 @@
         <v>283</v>
       </c>
       <c r="X74" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -27690,7 +28870,7 @@
         <v>289</v>
       </c>
       <c r="X75" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76">
@@ -27698,7 +28878,7 @@
         <v>294</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77">
@@ -27706,7 +28886,7 @@
         <v>432</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -27714,7 +28894,7 @@
         <v>335</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -27722,7 +28902,7 @@
         <v>273</v>
       </c>
       <c r="X79" t="s">
-        <v>517</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -27730,7 +28910,7 @@
         <v>284</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81">
@@ -27738,7 +28918,7 @@
         <v>290</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -27746,7 +28926,7 @@
         <v>279</v>
       </c>
       <c r="X82" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -27754,7 +28934,7 @@
         <v>274</v>
       </c>
       <c r="X83" t="s">
-        <v>506</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -27762,7 +28942,7 @@
         <v>291</v>
       </c>
       <c r="X84" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85">
@@ -27770,7 +28950,7 @@
         <v>275</v>
       </c>
       <c r="X85" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -27778,7 +28958,7 @@
         <v>276</v>
       </c>
       <c r="X86" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87">
@@ -27786,7 +28966,7 @@
         <v>308</v>
       </c>
       <c r="X87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -27794,7 +28974,7 @@
         <v>314</v>
       </c>
       <c r="X88" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -27802,7 +28982,7 @@
         <v>298</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90">
@@ -27810,7 +28990,7 @@
         <v>343</v>
       </c>
       <c r="X90" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -27818,7 +28998,7 @@
         <v>280</v>
       </c>
       <c r="X91" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -27826,161 +29006,166 @@
         <v>281</v>
       </c>
       <c r="X92" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21027" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21543" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1637,6 +1637,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="683" x14ac:knownFonts="1">
+  <fonts count="699" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5947,8 +5962,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1180">
+  <fills count="1207">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12631,8 +12747,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1219">
+  <borders count="1247">
     <border>
       <left/>
       <right/>
@@ -12924,6 +13193,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -24909,7 +25460,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="709">
+  <cellXfs count="725">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27007,52 +27558,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="668" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="669" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="670" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1164" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1164" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="672" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1167" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="1170" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="676" fillId="1173" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="1176" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="1176" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1170" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1173" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1176" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1176" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1200" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27377,7 +27976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27807,6 +28406,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>524</v>
+      </c>
       <c r="G6" t="s">
         <v>393</v>
       </c>
@@ -27929,7 +28531,7 @@
         <v>331</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>525</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -27982,7 +28584,7 @@
         <v>332</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -28023,7 +28625,7 @@
         <v>470</v>
       </c>
       <c r="K10" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -28061,7 +28663,7 @@
         <v>325</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>526</v>
       </c>
       <c r="M11" t="s">
         <v>493</v>
@@ -28096,7 +28698,7 @@
         <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="M12" t="s">
         <v>458</v>
@@ -28131,7 +28733,7 @@
         <v>327</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>494</v>
@@ -28166,7 +28768,7 @@
         <v>328</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -28198,7 +28800,7 @@
         <v>268</v>
       </c>
       <c r="K15" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -28230,7 +28832,7 @@
         <v>320</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -28262,7 +28864,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>523</v>
@@ -28285,7 +28887,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -28305,7 +28907,7 @@
         <v>299</v>
       </c>
       <c r="K19" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -28325,7 +28927,7 @@
         <v>300</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -28345,7 +28947,7 @@
         <v>301</v>
       </c>
       <c r="K21" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -28365,7 +28967,7 @@
         <v>302</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>492</v>
       </c>
       <c r="X22" t="s">
         <v>504</v>
@@ -28382,7 +28984,7 @@
         <v>293</v>
       </c>
       <c r="K23" t="s">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -28399,7 +29001,7 @@
         <v>282</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -28416,7 +29018,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -28432,6 +29034,9 @@
       <c r="G26" t="s">
         <v>285</v>
       </c>
+      <c r="K26" t="s">
+        <v>457</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -28446,6 +29051,9 @@
       <c r="G27" t="s">
         <v>269</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -28460,6 +29068,9 @@
       <c r="G28" t="s">
         <v>286</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>330</v>
       </c>
@@ -29046,126 +29657,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21543" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22061" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1652,6 +1652,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1665,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="699" x14ac:knownFonts="1">
+  <fonts count="715" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6063,8 +6069,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1207">
+  <fills count="1234">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12900,8 +13007,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1247">
+  <borders count="1275">
     <border>
       <left/>
       <right/>
@@ -13193,6 +13453,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -25460,7 +26002,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="725">
+  <cellXfs count="741">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27606,52 +28148,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1182" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1185" fontId="685" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="686" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1191" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="688" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="689" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="692" fillId="1200" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="696" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="697" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1197" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1200" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1203" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1203" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1224" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1227" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1230" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1230" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29127,7 +29717,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>529</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -29138,7 +29728,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -29149,7 +29739,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="X35" t="s">
         <v>213</v>
@@ -29160,7 +29750,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -29171,7 +29761,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="X37" t="s">
         <v>341</v>
@@ -29182,7 +29772,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s">
         <v>444</v>
@@ -29190,7 +29780,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="X39" t="s">
         <v>405</v>
@@ -29198,7 +29788,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -29206,7 +29796,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -29214,7 +29804,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -29222,7 +29812,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -29230,7 +29820,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -29238,7 +29828,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -29246,7 +29836,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="X46" t="s">
         <v>459</v>
@@ -29254,7 +29844,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="X47" t="s">
         <v>216</v>
@@ -29262,7 +29852,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -29270,7 +29860,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -29278,7 +29868,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -29286,7 +29876,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -29294,7 +29884,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="X52" t="s">
         <v>505</v>
@@ -29302,7 +29892,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="X53" t="s">
         <v>485</v>
@@ -29310,7 +29900,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -29318,7 +29908,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X55" t="s">
         <v>349</v>
@@ -29326,7 +29916,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X56" t="s">
         <v>478</v>
@@ -29334,7 +29924,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -29342,7 +29932,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -29350,7 +29940,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -29358,7 +29948,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -29366,7 +29956,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -29374,7 +29964,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -29382,7 +29972,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -29390,7 +29980,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="X64" t="s">
         <v>455</v>
@@ -29398,7 +29988,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="X65" t="s">
         <v>495</v>
@@ -29406,7 +29996,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="X66" t="s">
         <v>217</v>
@@ -29414,7 +30004,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="X67" t="s">
         <v>394</v>
@@ -29422,7 +30012,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="X68" t="s">
         <v>460</v>
@@ -29430,7 +30020,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -29438,7 +30028,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>307</v>
+        <v>424</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -29446,7 +30036,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>425</v>
+        <v>307</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -29454,7 +30044,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>265</v>
+        <v>425</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -29462,7 +30052,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="X73" t="s">
         <v>200</v>
@@ -29470,7 +30060,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="X74" t="s">
         <v>201</v>
@@ -29478,7 +30068,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="X75" t="s">
         <v>473</v>
@@ -29486,7 +30076,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="X76" t="s">
         <v>489</v>
@@ -29494,7 +30084,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -29502,7 +30092,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -29510,7 +30100,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -29518,7 +30108,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="X80" t="s">
         <v>517</v>
@@ -29526,7 +30116,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -29534,7 +30124,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -29542,7 +30132,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="X83" t="s">
         <v>202</v>
@@ -29550,7 +30140,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="X84" t="s">
         <v>506</v>
@@ -29558,7 +30148,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X85" t="s">
         <v>203</v>
@@ -29566,7 +30156,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="X86" t="s">
         <v>472</v>
@@ -29574,7 +30164,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="X87" t="s">
         <v>204</v>
@@ -29582,7 +30172,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="X88" t="s">
         <v>205</v>
@@ -29590,7 +30180,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="X89" t="s">
         <v>218</v>
@@ -29598,7 +30188,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -29606,7 +30196,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="X91" t="s">
         <v>206</v>
@@ -29614,18 +30204,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="X92" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>280</v>
+      </c>
       <c r="X93" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>281</v>
+      </c>
       <c r="X94" t="s">
         <v>207</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22061" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22581" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1658,6 +1658,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1671,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="715" x14ac:knownFonts="1">
+  <fonts count="731" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6170,8 +6176,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1234">
+  <fills count="1264">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13160,8 +13267,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1275">
+  <borders count="1303">
     <border>
       <left/>
       <right/>
@@ -13453,6 +13730,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -26002,7 +26561,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="741">
+  <cellXfs count="757">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28196,52 +28755,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="698" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1209" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="700" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1212" fontId="701" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="702" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1218" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="704" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1221" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="1224" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="708" fillId="1227" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="709" fillId="1230" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="710" fillId="1230" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1224" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1227" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1230" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1230" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1245" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1248" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1251" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1254" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1263" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28566,7 +29173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30258,126 +30865,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>461</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22581" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23109" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1664,6 +1665,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1693,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="731" x14ac:knownFonts="1">
+  <fonts count="747" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6277,8 +6299,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1264">
+  <fills count="1294">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13437,8 +13560,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1303">
+  <borders count="1331">
     <border>
       <left/>
       <right/>
@@ -13730,6 +14023,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -26561,7 +27136,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="757">
+  <cellXfs count="773">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28803,52 +29378,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1236" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="716" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1239" fontId="717" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1242" fontId="718" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="1245" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1245" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="720" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1248" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1248" fontId="721" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="723" fillId="1251" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="724" fillId="1254" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="725" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="726" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="729" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="1263" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1251" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1254" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1257" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1257" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1263" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1266" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1269" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1272" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1275" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1281" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1284" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1287" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1287" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1275" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1275" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29173,7 +29796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29225,51 +29848,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" t="s">
         <v>498</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>198</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>242</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>427</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>428</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>362</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>410</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>429</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -29314,51 +29940,54 @@
         <v>433</v>
       </c>
       <c r="N2" t="s">
+        <v>534</v>
+      </c>
+      <c r="O2" t="s">
         <v>501</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>434</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>435</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>256</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>220</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>415</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>439</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>440</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>386</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>411</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>173</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>178</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>185</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>448</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>512</v>
       </c>
     </row>
@@ -29403,45 +30032,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" t="s">
         <v>502</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>436</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>243</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>221</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>416</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>441</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>387</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>412</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>174</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>179</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>369</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -29483,45 +30115,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>536</v>
+      </c>
+      <c r="O4" t="s">
         <v>503</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>244</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>222</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>417</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>442</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>363</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>413</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>357</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>186</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>449</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -29556,40 +30191,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>245</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>223</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>418</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>443</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>364</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>176</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>181</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>187</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>450</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -29621,37 +30259,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>246</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>419</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>366</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>462</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>182</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>188</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>451</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -29677,37 +30318,40 @@
       <c r="M7" t="s">
         <v>318</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>247</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>438</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>420</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>365</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>463</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>183</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>189</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>452</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -29733,34 +30377,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>248</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>421</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>367</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>177</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>190</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>453</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -29786,25 +30430,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>249</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>422</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>368</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>212</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>191</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -29827,22 +30471,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>437</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>250</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>423</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>260</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>192</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>496</v>
       </c>
     </row>
@@ -29865,19 +30509,19 @@
       <c r="M11" t="s">
         <v>493</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>251</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>261</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>262</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>513</v>
       </c>
     </row>
@@ -29900,19 +30544,19 @@
       <c r="M12" t="s">
         <v>458</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>252</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>193</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>514</v>
       </c>
     </row>
@@ -29935,25 +30579,25 @@
       <c r="M13" t="s">
         <v>494</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>257</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>329</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>194</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -29970,25 +30614,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>253</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>195</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -30002,25 +30646,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>521</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>254</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>196</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
         <v>390</v>
@@ -30034,25 +30678,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>522</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>255</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>197</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>391</v>
@@ -30063,19 +30707,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>523</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>483</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
         <v>430</v>
@@ -30086,16 +30730,16 @@
       <c r="K18" t="s">
         <v>475</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -30106,16 +30750,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -30126,16 +30770,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21" t="s">
         <v>259</v>
@@ -30146,16 +30790,16 @@
       <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -30166,13 +30810,13 @@
       <c r="K22" t="s">
         <v>492</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="E23" t="s">
         <v>324</v>
@@ -30183,13 +30827,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -30200,13 +30844,13 @@
       <c r="K24" t="s">
         <v>404</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>467</v>
@@ -30217,13 +30861,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>228</v>
@@ -30234,13 +30878,13 @@
       <c r="K26" t="s">
         <v>457</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>229</v>
@@ -30251,13 +30895,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>490</v>
@@ -30268,13 +30912,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
         <v>491</v>
@@ -30282,18 +30926,21 @@
       <c r="G29" t="s">
         <v>287</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
       <c r="E30" t="s">
         <v>431</v>
       </c>
       <c r="G30" t="s">
         <v>219</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -30304,7 +30951,7 @@
       <c r="G31" t="s">
         <v>278</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -30315,7 +30962,7 @@
       <c r="G32" t="s">
         <v>288</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -30326,7 +30973,7 @@
       <c r="G33" t="s">
         <v>529</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -30337,7 +30984,7 @@
       <c r="G34" t="s">
         <v>263</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -30348,7 +30995,7 @@
       <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -30359,7 +31006,7 @@
       <c r="G36" t="s">
         <v>310</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -30370,7 +31017,7 @@
       <c r="G37" t="s">
         <v>264</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>341</v>
       </c>
     </row>
@@ -30381,7 +31028,7 @@
       <c r="G38" t="s">
         <v>311</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>444</v>
       </c>
     </row>
@@ -30389,7 +31036,7 @@
       <c r="G39" t="s">
         <v>270</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>405</v>
       </c>
     </row>
@@ -30397,7 +31044,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -30405,7 +31052,7 @@
       <c r="G41" t="s">
         <v>215</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -30413,7 +31060,7 @@
       <c r="G42" t="s">
         <v>292</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -30421,7 +31068,7 @@
       <c r="G43" t="s">
         <v>303</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30429,7 +31076,7 @@
       <c r="G44" t="s">
         <v>304</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30437,7 +31084,7 @@
       <c r="G45" t="s">
         <v>346</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -30445,7 +31092,7 @@
       <c r="G46" t="s">
         <v>345</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>459</v>
       </c>
     </row>
@@ -30453,7 +31100,7 @@
       <c r="G47" t="s">
         <v>214</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30461,7 +31108,7 @@
       <c r="G48" t="s">
         <v>323</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -30469,7 +31116,7 @@
       <c r="G49" t="s">
         <v>342</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -30477,7 +31124,7 @@
       <c r="G50" t="s">
         <v>373</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30485,7 +31132,7 @@
       <c r="G51" t="s">
         <v>305</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -30493,7 +31140,7 @@
       <c r="G52" t="s">
         <v>359</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>505</v>
       </c>
     </row>
@@ -30501,7 +31148,7 @@
       <c r="G53" t="s">
         <v>334</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>485</v>
       </c>
     </row>
@@ -30509,7 +31156,7 @@
       <c r="G54" t="s">
         <v>271</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30517,7 +31164,7 @@
       <c r="G55" t="s">
         <v>295</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>349</v>
       </c>
     </row>
@@ -30525,7 +31172,7 @@
       <c r="G56" t="s">
         <v>296</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>478</v>
       </c>
     </row>
@@ -30533,7 +31180,7 @@
       <c r="G57" t="s">
         <v>297</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30541,7 +31188,7 @@
       <c r="G58" t="s">
         <v>306</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30549,7 +31196,7 @@
       <c r="G59" t="s">
         <v>315</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -30557,7 +31204,7 @@
       <c r="G60" t="s">
         <v>340</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -30565,7 +31212,7 @@
       <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -30573,7 +31220,7 @@
       <c r="G62" t="s">
         <v>313</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -30581,7 +31228,7 @@
       <c r="G63" t="s">
         <v>374</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -30589,7 +31236,7 @@
       <c r="G64" t="s">
         <v>375</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>455</v>
       </c>
     </row>
@@ -30597,7 +31244,7 @@
       <c r="G65" t="s">
         <v>348</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>495</v>
       </c>
     </row>
@@ -30605,7 +31252,7 @@
       <c r="G66" t="s">
         <v>316</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>217</v>
       </c>
     </row>
@@ -30613,7 +31260,7 @@
       <c r="G67" t="s">
         <v>272</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>394</v>
       </c>
     </row>
@@ -30621,7 +31268,7 @@
       <c r="G68" t="s">
         <v>356</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>460</v>
       </c>
     </row>
@@ -30629,7 +31276,7 @@
       <c r="G69" t="s">
         <v>317</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -30637,7 +31284,7 @@
       <c r="G70" t="s">
         <v>424</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -30645,7 +31292,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -30653,7 +31300,7 @@
       <c r="G72" t="s">
         <v>425</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -30661,7 +31308,7 @@
       <c r="G73" t="s">
         <v>265</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -30669,7 +31316,7 @@
       <c r="G74" t="s">
         <v>530</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>201</v>
       </c>
     </row>
@@ -30677,7 +31324,7 @@
       <c r="G75" t="s">
         <v>347</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>473</v>
       </c>
     </row>
@@ -30685,7 +31332,7 @@
       <c r="G76" t="s">
         <v>283</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>489</v>
       </c>
     </row>
@@ -30693,7 +31340,7 @@
       <c r="G77" t="s">
         <v>289</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -30701,7 +31348,7 @@
       <c r="G78" t="s">
         <v>294</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -30709,7 +31356,7 @@
       <c r="G79" t="s">
         <v>432</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -30717,7 +31364,7 @@
       <c r="G80" t="s">
         <v>335</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>517</v>
       </c>
     </row>
@@ -30725,7 +31372,7 @@
       <c r="G81" t="s">
         <v>273</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30733,7 +31380,7 @@
       <c r="G82" t="s">
         <v>284</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -30741,7 +31388,7 @@
       <c r="G83" t="s">
         <v>290</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>202</v>
       </c>
     </row>
@@ -30749,7 +31396,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>506</v>
       </c>
     </row>
@@ -30757,7 +31404,7 @@
       <c r="G85" t="s">
         <v>274</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>203</v>
       </c>
     </row>
@@ -30765,7 +31412,7 @@
       <c r="G86" t="s">
         <v>291</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>472</v>
       </c>
     </row>
@@ -30773,7 +31420,7 @@
       <c r="G87" t="s">
         <v>275</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>204</v>
       </c>
     </row>
@@ -30781,7 +31428,7 @@
       <c r="G88" t="s">
         <v>276</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>205</v>
       </c>
     </row>
@@ -30789,7 +31436,7 @@
       <c r="G89" t="s">
         <v>308</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>218</v>
       </c>
     </row>
@@ -30797,7 +31444,7 @@
       <c r="G90" t="s">
         <v>314</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -30805,7 +31452,7 @@
       <c r="G91" t="s">
         <v>298</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>206</v>
       </c>
     </row>
@@ -30813,7 +31460,7 @@
       <c r="G92" t="s">
         <v>343</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -30821,7 +31468,7 @@
       <c r="G93" t="s">
         <v>280</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>454</v>
       </c>
     </row>
@@ -30829,172 +31476,172 @@
       <c r="G94" t="s">
         <v>281</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -32,7 +32,7 @@
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1708,6 +1708,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2035,8 +2047,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="65">
+  <fills count="95">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2401,8 +2514,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3004,6 +3287,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3013,7 +3578,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3226,52 +3791,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="37" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="40" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="43" fontId="36" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="46" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="52" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="52" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="55" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="55" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="67" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="70" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="73" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="76" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="82" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="85" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="88" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="88" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3834,7 +4447,7 @@
         <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
         <v>463</v>
@@ -3917,7 +4530,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -4000,7 +4613,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
         <v>464</v>
@@ -4024,7 +4637,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -4070,6 +4683,9 @@
       <c r="B6" t="s">
         <v>374</v>
       </c>
+      <c r="D6" t="s">
+        <v>495</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +4708,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -4151,7 +4767,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -4210,7 +4826,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -4266,7 +4882,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -4310,7 +4926,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q10" t="s">
         <v>428</v>
@@ -4350,6 +4966,9 @@
       <c r="M11" t="s">
         <v>477</v>
       </c>
+      <c r="N11" t="s">
+        <v>522</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -4385,6 +5004,9 @@
       <c r="M12" t="s">
         <v>447</v>
       </c>
+      <c r="N12" t="s">
+        <v>523</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -4700,7 +5322,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -27,7 +27,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1720,6 +1720,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1733,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="81" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2148,8 +2154,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="95">
+  <fills count="125">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2684,8 +2791,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3569,6 +3846,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3578,7 +4137,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3839,52 +4398,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="67" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="67" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="70" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="70" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="73" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="73" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="76" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="76" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="55" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="82" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="82" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="85" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="85" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="88" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="88" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="88" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="88" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="97" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="100" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="103" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="106" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="112" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="115" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="118" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="118" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4241,7 +4848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4627,6 +5234,9 @@
       <c r="H5" t="s">
         <v>461</v>
       </c>
+      <c r="I5" t="s">
+        <v>550</v>
+      </c>
       <c r="J5" t="s">
         <v>349</v>
       </c>
@@ -5503,7 +6113,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>398</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40">
@@ -5511,7 +6121,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
@@ -5519,7 +6129,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -5527,7 +6137,7 @@
         <v>287</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -5535,7 +6145,7 @@
         <v>298</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -5543,7 +6153,7 @@
         <v>299</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -5551,7 +6161,7 @@
         <v>341</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -5559,7 +6169,7 @@
         <v>340</v>
       </c>
       <c r="Y46" t="s">
-        <v>448</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -5567,7 +6177,7 @@
         <v>209</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
@@ -5575,7 +6185,7 @@
         <v>318</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
@@ -5583,7 +6193,7 @@
         <v>337</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -5591,7 +6201,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -5599,7 +6209,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -5607,7 +6217,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>489</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -5615,7 +6225,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
@@ -5623,7 +6233,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
@@ -5631,7 +6241,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -5639,7 +6249,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57">
@@ -5647,7 +6257,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
@@ -5655,7 +6265,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -5663,7 +6273,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -5671,7 +6281,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -5679,7 +6289,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -5687,7 +6297,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -5695,7 +6305,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -5703,7 +6313,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>444</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -5711,7 +6321,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66">
@@ -5719,7 +6329,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67">
@@ -5727,7 +6337,7 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -5735,7 +6345,7 @@
         <v>351</v>
       </c>
       <c r="Y68" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
@@ -5743,7 +6353,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
@@ -5751,7 +6361,7 @@
         <v>416</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -5759,7 +6369,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -5767,7 +6377,7 @@
         <v>417</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -5775,7 +6385,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -5783,7 +6393,7 @@
         <v>514</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -5791,7 +6401,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>460</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -5799,7 +6409,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77">
@@ -5807,7 +6417,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78">
@@ -5815,7 +6425,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -5823,7 +6433,7 @@
         <v>423</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -5831,7 +6441,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>501</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -5839,7 +6449,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82">
@@ -5847,7 +6457,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -5855,7 +6465,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -5863,7 +6473,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>490</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -5871,7 +6481,7 @@
         <v>269</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86">
@@ -5879,7 +6489,7 @@
         <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -5887,7 +6497,7 @@
         <v>270</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88">
@@ -5895,7 +6505,7 @@
         <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -5903,7 +6513,7 @@
         <v>303</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -5911,7 +6521,7 @@
         <v>309</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -5919,7 +6529,7 @@
         <v>293</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
@@ -5927,7 +6537,7 @@
         <v>338</v>
       </c>
       <c r="Y92" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -5935,7 +6545,7 @@
         <v>275</v>
       </c>
       <c r="Y93" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94">
@@ -5943,171 +6553,176 @@
         <v>276</v>
       </c>
       <c r="Y94" t="s">
-        <v>202</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>516</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>450</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -25,13 +25,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -47,12 +47,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1726,6 +1726,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="81" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2255,8 +2288,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="125">
+  <fills count="152">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2961,8 +3095,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="147">
     <border>
       <left/>
       <right/>
@@ -4128,6 +4415,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4137,7 +4750,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4446,52 +5059,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="97" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="97" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="100" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="100" fontId="67" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="103" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="103" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="106" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="106" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="71" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="112" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="112" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="115" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="115" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="118" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="118" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="118" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="118" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="127" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="130" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="133" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="136" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="142" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="133" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="145" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="145" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4848,7 +5509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5370,6 +6031,9 @@
       <c r="H7" t="s">
         <v>453</v>
       </c>
+      <c r="J7" t="s">
+        <v>554</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -5410,7 +6074,7 @@
         <v>441</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8">
@@ -5466,7 +6130,7 @@
         <v>442</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9">
@@ -5513,7 +6177,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
@@ -5554,7 +6218,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>480</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -5592,7 +6256,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>497</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -5612,7 +6276,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>447</v>
+        <v>555</v>
       </c>
       <c r="N12" t="s">
         <v>523</v>
@@ -5630,7 +6294,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>498</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -5650,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -5665,7 +6329,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14">
@@ -5685,7 +6349,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -5700,7 +6364,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15">
@@ -5717,7 +6381,7 @@
         <v>511</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>505</v>
@@ -5732,7 +6396,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16">
@@ -5749,7 +6413,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>506</v>
@@ -5764,7 +6428,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -5780,6 +6444,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>507</v>
       </c>
@@ -5787,7 +6454,7 @@
         <v>469</v>
       </c>
       <c r="AD17" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
@@ -5807,7 +6474,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
@@ -5827,7 +6494,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20">
@@ -5847,7 +6514,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -5867,7 +6534,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -5886,6 +6553,9 @@
       <c r="Y22" t="s">
         <v>488</v>
       </c>
+      <c r="AD22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5903,6 +6573,9 @@
       <c r="Y23" t="s">
         <v>108</v>
       </c>
+      <c r="AD23" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5920,6 +6593,9 @@
       <c r="Y24" t="s">
         <v>109</v>
       </c>
+      <c r="AD24" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5937,6 +6613,9 @@
       <c r="Y25" t="s">
         <v>110</v>
       </c>
+      <c r="AD25" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5954,6 +6633,9 @@
       <c r="Y26" t="s">
         <v>111</v>
       </c>
+      <c r="AD26" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5971,6 +6653,9 @@
       <c r="Y27" t="s">
         <v>112</v>
       </c>
+      <c r="AD27" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -6201,7 +6886,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51">
@@ -6209,7 +6894,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -6217,7 +6902,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -6225,7 +6910,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>489</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -6233,7 +6918,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55">
@@ -6241,7 +6926,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
@@ -6249,7 +6934,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -6257,7 +6942,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
@@ -6265,7 +6950,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>130</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
@@ -6273,7 +6958,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -6281,7 +6966,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -6289,7 +6974,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -6297,7 +6982,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -6305,7 +6990,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -6313,7 +6998,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -6321,7 +7006,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>444</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -6329,7 +7014,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67">
@@ -6337,15 +7022,15 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>212</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
+        <v>552</v>
       </c>
       <c r="Y68" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -6353,7 +7038,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
@@ -6361,7 +7046,7 @@
         <v>416</v>
       </c>
       <c r="Y70" t="s">
-        <v>137</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
@@ -6369,7 +7054,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -6377,7 +7062,7 @@
         <v>417</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -6385,7 +7070,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -6393,7 +7078,7 @@
         <v>514</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -6401,7 +7086,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -6409,7 +7094,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>460</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -6417,7 +7102,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78">
@@ -6425,7 +7110,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>141</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79">
@@ -6433,7 +7118,7 @@
         <v>423</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -6441,7 +7126,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
@@ -6449,7 +7134,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>501</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -6457,7 +7142,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83">
@@ -6465,7 +7150,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -6473,256 +7158,264 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
+        <v>553</v>
       </c>
       <c r="Y85" t="s">
-        <v>490</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>198</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y87" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y90" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y91" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y92" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y93" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>516</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>450</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -46,13 +46,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1759,6 +1760,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2389,8 +2399,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="152">
+  <fills count="179">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3248,8 +3359,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="147">
+  <borders count="179">
     <border>
       <left/>
       <right/>
@@ -4741,6 +5005,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4750,7 +5340,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5107,52 +5697,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="127" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="127" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="130" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="130" fontId="83" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="133" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="133" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="136" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="136" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="142" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="142" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="133" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="133" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="145" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="145" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="145" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="145" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="154" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="157" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="160" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="163" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="169" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="160" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5509,7 +6147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5594,21 +6232,24 @@
         <v>402</v>
       </c>
       <c r="Y1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>420</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5686,21 +6327,24 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>437</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5771,22 +6415,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5854,22 +6498,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>438</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5928,22 +6572,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>353</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>439</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5996,22 +6640,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>451</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>440</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6058,22 +6702,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>452</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>441</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6114,22 +6758,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>442</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6170,13 +6814,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6211,13 +6855,13 @@
       <c r="T10" t="s">
         <v>415</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6249,13 +6893,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6287,13 +6931,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6322,13 +6966,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6357,13 +7001,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6389,13 +7033,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6421,13 +7065,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6447,13 +7091,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>507</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>469</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6470,10 +7114,10 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6490,10 +7134,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6510,10 +7154,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6530,10 +7174,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6542,7 +7186,7 @@
         <v>419</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
@@ -6550,10 +7194,10 @@
       <c r="K22" t="s">
         <v>476</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>488</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6562,7 +7206,7 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>288</v>
@@ -6570,10 +7214,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6582,7 +7226,7 @@
         <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
         <v>277</v>
@@ -6590,19 +7234,19 @@
       <c r="K24" t="s">
         <v>397</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>563</v>
       </c>
       <c r="E25" t="s">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -6610,19 +7254,19 @@
       <c r="K25" t="s">
         <v>547</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>455</v>
       </c>
       <c r="G26" t="s">
         <v>280</v>
@@ -6630,19 +7274,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>264</v>
@@ -6650,19 +7294,19 @@
       <c r="K27" t="s">
         <v>446</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>281</v>
@@ -6670,16 +7314,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G29" t="s">
         <v>282</v>
@@ -6687,117 +7331,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>420</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>513</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6805,7 +7455,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6813,7 +7463,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6821,7 +7471,7 @@
       <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6829,7 +7479,7 @@
       <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6837,7 +7487,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6845,7 +7495,7 @@
       <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6853,7 +7503,7 @@
       <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6861,7 +7511,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6869,7 +7519,7 @@
       <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6877,7 +7527,7 @@
       <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6885,7 +7535,7 @@
       <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6893,7 +7543,7 @@
       <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6901,7 +7551,7 @@
       <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6909,7 +7559,7 @@
       <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6917,7 +7567,7 @@
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6925,7 +7575,7 @@
       <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6933,7 +7583,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6941,7 +7591,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6949,7 +7599,7 @@
       <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6957,7 +7607,7 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6965,7 +7615,7 @@
       <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6973,7 +7623,7 @@
       <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6981,7 +7631,7 @@
       <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6989,7 +7639,7 @@
       <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6997,7 +7647,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7005,7 +7655,7 @@
       <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7013,7 +7663,7 @@
       <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7021,7 +7671,7 @@
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>479</v>
       </c>
     </row>
@@ -7029,7 +7679,7 @@
       <c r="G68" t="s">
         <v>552</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7037,7 +7687,7 @@
       <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7045,7 +7695,7 @@
       <c r="G70" t="s">
         <v>416</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7053,7 +7703,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7061,7 +7711,7 @@
       <c r="G72" t="s">
         <v>417</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7069,7 +7719,7 @@
       <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7077,7 +7727,7 @@
       <c r="G74" t="s">
         <v>514</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7085,7 +7735,7 @@
       <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7093,7 +7743,7 @@
       <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7101,7 +7751,7 @@
       <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7109,7 +7759,7 @@
       <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7117,7 +7767,7 @@
       <c r="G79" t="s">
         <v>423</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7125,7 +7775,7 @@
       <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7133,7 +7783,7 @@
       <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7141,7 +7791,7 @@
       <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7149,7 +7799,7 @@
       <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7157,7 +7807,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7165,7 +7815,7 @@
       <c r="G85" t="s">
         <v>553</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7173,7 +7823,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7181,7 +7831,7 @@
       <c r="G87" t="s">
         <v>286</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7189,7 +7839,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7197,7 +7847,7 @@
       <c r="G89" t="s">
         <v>271</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7205,7 +7855,7 @@
       <c r="G90" t="s">
         <v>303</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7213,7 +7863,7 @@
       <c r="G91" t="s">
         <v>309</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7221,7 +7871,7 @@
       <c r="G92" t="s">
         <v>293</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7229,7 +7879,7 @@
       <c r="G93" t="s">
         <v>338</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7237,7 +7887,7 @@
       <c r="G94" t="s">
         <v>275</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7245,177 +7895,177 @@
       <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1769,6 +1769,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="129" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2500,8 +2506,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="179">
+  <fills count="206">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3512,8 +3619,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="179">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -5331,6 +5591,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5340,7 +5926,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5745,52 +6331,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="154" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="154" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="157" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="157" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="160" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="160" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="163" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="163" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="169" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="169" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="160" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="160" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="172" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="172" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="175" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="181" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="184" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="187" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="196" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="187" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7469,7 +8103,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
+        <v>566</v>
       </c>
       <c r="Z42" t="s">
         <v>121</v>
@@ -7477,7 +8111,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Z43" t="s">
         <v>122</v>
@@ -7485,7 +8119,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z44" t="s">
         <v>123</v>
@@ -7493,7 +8127,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Z45" t="s">
         <v>124</v>
@@ -7501,7 +8135,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -7509,7 +8143,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s">
         <v>448</v>
@@ -7517,7 +8151,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s">
         <v>211</v>
@@ -7525,7 +8159,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Z49" t="s">
         <v>77</v>
@@ -7533,7 +8167,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s">
         <v>556</v>
@@ -7541,7 +8175,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s">
         <v>126</v>
@@ -7549,7 +8183,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s">
         <v>127</v>
@@ -7557,7 +8191,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Z53" t="s">
         <v>128</v>
@@ -7565,7 +8199,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Z54" t="s">
         <v>489</v>
@@ -7573,7 +8207,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Z55" t="s">
         <v>471</v>
@@ -7581,7 +8215,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z56" t="s">
         <v>129</v>
@@ -7589,7 +8223,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z57" t="s">
         <v>344</v>
@@ -7597,7 +8231,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
+        <v>567</v>
       </c>
       <c r="Z58" t="s">
         <v>465</v>
@@ -7605,7 +8239,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Z59" t="s">
         <v>130</v>
@@ -7613,7 +8247,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="Z60" t="s">
         <v>131</v>
@@ -7621,7 +8255,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Z61" t="s">
         <v>132</v>
@@ -7629,7 +8263,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Z62" t="s">
         <v>133</v>
@@ -7637,7 +8271,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="Z63" t="s">
         <v>134</v>
@@ -7645,7 +8279,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="Z64" t="s">
         <v>135</v>
@@ -7653,7 +8287,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="Z65" t="s">
         <v>136</v>
@@ -7661,7 +8295,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="Z66" t="s">
         <v>444</v>
@@ -7669,7 +8303,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s">
         <v>479</v>
@@ -7677,7 +8311,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>552</v>
+        <v>311</v>
       </c>
       <c r="Z68" t="s">
         <v>212</v>
@@ -7685,7 +8319,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="Z69" t="s">
         <v>387</v>
@@ -7693,7 +8327,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>416</v>
+        <v>552</v>
       </c>
       <c r="Z70" t="s">
         <v>449</v>
@@ -7701,7 +8335,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z71" t="s">
         <v>137</v>
@@ -7709,7 +8343,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Z72" t="s">
         <v>138</v>
@@ -7717,7 +8351,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Z73" t="s">
         <v>139</v>
@@ -7725,7 +8359,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="Z74" t="s">
         <v>140</v>
@@ -7733,7 +8367,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="Z75" t="s">
         <v>195</v>
@@ -7741,7 +8375,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="Z76" t="s">
         <v>196</v>
@@ -7749,7 +8383,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="Z77" t="s">
         <v>460</v>
@@ -7757,7 +8391,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Z78" t="s">
         <v>473</v>
@@ -7765,7 +8399,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
       <c r="Z79" t="s">
         <v>141</v>
@@ -7773,7 +8407,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="Z80" t="s">
         <v>142</v>
@@ -7781,7 +8415,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="Z81" t="s">
         <v>143</v>
@@ -7789,7 +8423,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="Z82" t="s">
         <v>501</v>
@@ -7797,7 +8431,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="Z83" t="s">
         <v>144</v>
@@ -7805,7 +8439,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Z84" t="s">
         <v>145</v>
@@ -7813,7 +8447,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>553</v>
+        <v>285</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -7821,7 +8455,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z86" t="s">
         <v>490</v>
@@ -7829,7 +8463,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>286</v>
+        <v>553</v>
       </c>
       <c r="Z87" t="s">
         <v>198</v>
@@ -7837,7 +8471,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z88" t="s">
         <v>459</v>
@@ -7845,7 +8479,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Z89" t="s">
         <v>199</v>
@@ -7853,7 +8487,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="Z90" t="s">
         <v>200</v>
@@ -7861,7 +8495,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="Z91" t="s">
         <v>213</v>
@@ -7869,7 +8503,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Z92" t="s">
         <v>146</v>
@@ -7877,7 +8511,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Z93" t="s">
         <v>201</v>
@@ -7885,7 +8519,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Z94" t="s">
         <v>436</v>
@@ -7893,18 +8527,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="Z95" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
       <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
       <c r="Z97" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1775,6 +1775,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1785,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="129" x14ac:knownFonts="1">
+  <fonts count="145" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2607,8 +2610,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="206">
+  <fills count="233">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3772,8 +3876,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="211">
+  <borders count="243">
     <border>
       <left/>
       <right/>
@@ -5917,6 +6174,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5926,7 +6509,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6379,52 +6962,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="181" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="181" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="184" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="184" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="187" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="187" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="190" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="196" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="196" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="187" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="187" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="199" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="199" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="202" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="208" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="211" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="214" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="217" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="223" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="214" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="226" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="226" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6781,7 +7412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6866,24 +7497,21 @@
         <v>402</v>
       </c>
       <c r="Y1" t="s">
-        <v>563</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="AD1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6961,24 +7589,21 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
-        <v>565</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="AD2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7049,22 +7674,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7132,22 +7757,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
+      <c r="Y4" t="s">
+        <v>352</v>
+      </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="AD4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7206,22 +7831,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="AD5" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7274,22 +7899,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>451</v>
       </c>
       <c r="AA6" t="s">
-        <v>451</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="AD6" t="s">
-        <v>440</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7336,22 +7961,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>452</v>
       </c>
       <c r="AA7" t="s">
-        <v>452</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>441</v>
       </c>
       <c r="AD7" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7392,22 +8017,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>442</v>
       </c>
       <c r="AD8" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7448,13 +8073,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7489,13 +8114,13 @@
       <c r="T10" t="s">
         <v>415</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7527,13 +8152,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7565,13 +8190,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7600,13 +8225,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7635,13 +8260,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7667,13 +8292,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7691,7 +8316,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>568</v>
       </c>
       <c r="Q16" t="s">
         <v>506</v>
@@ -7699,13 +8324,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7723,15 +8348,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>507</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>469</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7748,10 +8373,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7768,10 +8396,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7788,10 +8416,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7808,10 +8436,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7828,10 +8456,10 @@
       <c r="K22" t="s">
         <v>476</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>488</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7848,10 +8476,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7868,16 +8496,16 @@
       <c r="K24" t="s">
         <v>397</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -7888,16 +8516,16 @@
       <c r="K25" t="s">
         <v>547</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>455</v>
@@ -7908,16 +8536,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -7928,16 +8556,16 @@
       <c r="K27" t="s">
         <v>446</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -7948,13 +8576,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="E29" t="s">
         <v>474</v>
@@ -7965,13 +8593,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>475</v>
@@ -7979,21 +8607,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>422</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8004,7 +8629,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8015,7 +8640,7 @@
       <c r="G33" t="s">
         <v>513</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8026,7 +8651,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8037,7 +8662,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8048,7 +8673,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8059,7 +8684,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8070,7 +8695,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8081,7 +8706,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>551</v>
       </c>
     </row>
@@ -8089,7 +8714,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8097,7 +8722,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8105,7 +8730,7 @@
       <c r="G42" t="s">
         <v>566</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8113,7 +8738,7 @@
       <c r="G43" t="s">
         <v>287</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8121,7 +8746,7 @@
       <c r="G44" t="s">
         <v>298</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8129,7 +8754,7 @@
       <c r="G45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8137,7 +8762,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8145,7 +8770,7 @@
       <c r="G47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8153,7 +8778,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8161,7 +8786,7 @@
       <c r="G49" t="s">
         <v>318</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8169,7 +8794,7 @@
       <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>556</v>
       </c>
     </row>
@@ -8177,7 +8802,7 @@
       <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8185,7 +8810,7 @@
       <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8193,7 +8818,7 @@
       <c r="G53" t="s">
         <v>354</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8201,7 +8826,7 @@
       <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8209,7 +8834,7 @@
       <c r="G55" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8217,7 +8842,7 @@
       <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8225,7 +8850,7 @@
       <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8233,7 +8858,7 @@
       <c r="G58" t="s">
         <v>567</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8241,7 +8866,7 @@
       <c r="G59" t="s">
         <v>292</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8249,7 +8874,7 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8257,7 +8882,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8265,7 +8890,7 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8273,7 +8898,7 @@
       <c r="G63" t="s">
         <v>307</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8281,7 +8906,7 @@
       <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8289,7 +8914,7 @@
       <c r="G65" t="s">
         <v>367</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8297,7 +8922,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8305,7 +8930,7 @@
       <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8313,7 +8938,7 @@
       <c r="G68" t="s">
         <v>311</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8321,7 +8946,7 @@
       <c r="G69" t="s">
         <v>267</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8329,7 +8954,7 @@
       <c r="G70" t="s">
         <v>552</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8337,7 +8962,7 @@
       <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8345,7 +8970,7 @@
       <c r="G72" t="s">
         <v>416</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8353,7 +8978,7 @@
       <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8361,7 +8986,7 @@
       <c r="G74" t="s">
         <v>417</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8369,7 +8994,7 @@
       <c r="G75" t="s">
         <v>260</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8377,7 +9002,7 @@
       <c r="G76" t="s">
         <v>514</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8385,7 +9010,7 @@
       <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8393,7 +9018,7 @@
       <c r="G78" t="s">
         <v>278</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8401,7 +9026,7 @@
       <c r="G79" t="s">
         <v>284</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8409,7 +9034,7 @@
       <c r="G80" t="s">
         <v>289</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8417,7 +9042,7 @@
       <c r="G81" t="s">
         <v>423</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8425,7 +9050,7 @@
       <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>501</v>
       </c>
     </row>
@@ -8433,7 +9058,7 @@
       <c r="G83" t="s">
         <v>268</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8441,7 +9066,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8449,7 +9074,7 @@
       <c r="G85" t="s">
         <v>285</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8457,7 +9082,7 @@
       <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>490</v>
       </c>
     </row>
@@ -8465,7 +9090,7 @@
       <c r="G87" t="s">
         <v>553</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8473,7 +9098,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8481,7 +9106,7 @@
       <c r="G89" t="s">
         <v>286</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8489,7 +9114,7 @@
       <c r="G90" t="s">
         <v>270</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8497,7 +9122,7 @@
       <c r="G91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8505,7 +9130,7 @@
       <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8513,7 +9138,7 @@
       <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8521,7 +9146,7 @@
       <c r="G94" t="s">
         <v>293</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8529,7 +9154,7 @@
       <c r="G95" t="s">
         <v>338</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8537,7 +9162,7 @@
       <c r="G96" t="s">
         <v>275</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8545,167 +9170,167 @@
       <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1778,6 +1778,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1797,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="145" x14ac:knownFonts="1">
+  <fonts count="225" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2711,8 +2723,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="233">
+  <fills count="368">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4029,8 +4546,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="243">
+  <borders count="403">
     <border>
       <left/>
       <right/>
@@ -6500,6 +7782,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6509,7 +9421,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="254">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7010,52 +9922,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="208" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="208" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="211" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="211" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="214" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="214" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="217" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="217" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="223" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="223" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="214" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="214" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="226" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="226" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="226" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="226" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="229" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="235" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="238" fontId="147" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="241" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="244" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="250" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="241" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="253" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="253" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="256" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="262" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="265" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="268" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="271" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="167" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="277" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="268" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="280" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="280" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="283" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="289" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="292" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="295" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="298" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="183" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="304" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="295" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="307" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="307" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="310" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="316" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="319" fontId="195" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="322" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="325" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="199" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="331" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="322" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="334" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="334" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="337" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="343" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="346" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="349" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="352" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="358" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="349" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="361" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="361" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7412,7 +10564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8497,7 +11649,7 @@
         <v>397</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>569</v>
       </c>
       <c r="AD24" t="s">
         <v>561</v>
@@ -8517,7 +11669,7 @@
         <v>547</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>562</v>
@@ -8537,7 +11689,7 @@
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -8557,7 +11709,7 @@
         <v>446</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -8577,7 +11729,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -8594,7 +11746,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -8608,7 +11760,7 @@
         <v>214</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -8619,7 +11771,7 @@
         <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -8630,7 +11782,7 @@
         <v>283</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -8641,7 +11793,7 @@
         <v>513</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -8652,7 +11804,7 @@
         <v>258</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35">
@@ -8663,7 +11815,7 @@
         <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -8674,7 +11826,7 @@
         <v>305</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -8685,7 +11837,7 @@
         <v>259</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -8696,7 +11848,7 @@
         <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -8707,7 +11859,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>551</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -8715,7 +11867,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41">
@@ -8723,7 +11875,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42">
@@ -8731,7 +11883,7 @@
         <v>566</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
@@ -8739,7 +11891,7 @@
         <v>287</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -8747,7 +11899,7 @@
         <v>298</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -8755,7 +11907,7 @@
         <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -8763,7 +11915,7 @@
         <v>341</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -8771,7 +11923,7 @@
         <v>340</v>
       </c>
       <c r="Y47" t="s">
-        <v>448</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -8779,7 +11931,7 @@
         <v>209</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -8787,7 +11939,7 @@
         <v>318</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
@@ -8795,7 +11947,7 @@
         <v>337</v>
       </c>
       <c r="Y50" t="s">
-        <v>556</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
@@ -8803,7 +11955,7 @@
         <v>366</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -8811,7 +11963,7 @@
         <v>300</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53">
@@ -8819,7 +11971,7 @@
         <v>354</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -8827,7 +11979,7 @@
         <v>329</v>
       </c>
       <c r="Y54" t="s">
-        <v>489</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -8835,7 +11987,7 @@
         <v>266</v>
       </c>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -8843,7 +11995,7 @@
         <v>290</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57">
@@ -8851,7 +12003,7 @@
         <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
@@ -8859,7 +12011,7 @@
         <v>567</v>
       </c>
       <c r="Y58" t="s">
-        <v>465</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -8867,7 +12019,7 @@
         <v>292</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
@@ -8875,7 +12027,7 @@
         <v>301</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -8883,7 +12035,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -8891,7 +12043,7 @@
         <v>335</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -8899,7 +12051,7 @@
         <v>307</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -8907,7 +12059,7 @@
         <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -8915,7 +12067,7 @@
         <v>367</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -8923,7 +12075,7 @@
         <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>444</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -8931,7 +12083,7 @@
         <v>343</v>
       </c>
       <c r="Y67" t="s">
-        <v>479</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
@@ -8939,7 +12091,7 @@
         <v>311</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69">
@@ -8947,7 +12099,7 @@
         <v>267</v>
       </c>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70">
@@ -8955,7 +12107,7 @@
         <v>552</v>
       </c>
       <c r="Y70" t="s">
-        <v>449</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
@@ -8963,7 +12115,7 @@
         <v>312</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
@@ -8971,7 +12123,7 @@
         <v>416</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73">
@@ -8979,7 +12131,7 @@
         <v>302</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -8987,7 +12139,7 @@
         <v>417</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -8995,7 +12147,7 @@
         <v>260</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -9003,7 +12155,7 @@
         <v>514</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -9011,7 +12163,7 @@
         <v>342</v>
       </c>
       <c r="Y77" t="s">
-        <v>460</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -9019,7 +12171,7 @@
         <v>278</v>
       </c>
       <c r="Y78" t="s">
-        <v>473</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -9027,7 +12179,7 @@
         <v>284</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80">
@@ -9035,7 +12187,7 @@
         <v>289</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81">
@@ -9043,7 +12195,7 @@
         <v>423</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -9051,7 +12203,7 @@
         <v>330</v>
       </c>
       <c r="Y82" t="s">
-        <v>501</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
@@ -9059,7 +12211,7 @@
         <v>268</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
@@ -9067,7 +12219,7 @@
         <v>279</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85">
@@ -9075,7 +12227,7 @@
         <v>285</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -9083,7 +12235,7 @@
         <v>274</v>
       </c>
       <c r="Y86" t="s">
-        <v>490</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
@@ -9091,7 +12243,7 @@
         <v>553</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -9099,7 +12251,7 @@
         <v>269</v>
       </c>
       <c r="Y88" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89">
@@ -9107,7 +12259,7 @@
         <v>286</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -9115,7 +12267,7 @@
         <v>270</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91">
@@ -9123,7 +12275,7 @@
         <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -9131,7 +12283,7 @@
         <v>303</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -9139,7 +12291,7 @@
         <v>309</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
@@ -9147,7 +12299,7 @@
         <v>293</v>
       </c>
       <c r="Y94" t="s">
-        <v>436</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -9155,7 +12307,7 @@
         <v>338</v>
       </c>
       <c r="Y95" t="s">
-        <v>443</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
@@ -9163,7 +12315,7 @@
         <v>275</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -9171,166 +12323,186 @@
         <v>276</v>
       </c>
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>512</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>515</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>381</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>450</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_io.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8327" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1790,6 +1790,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="225" x14ac:knownFonts="1">
+  <fonts count="241" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3228,8 +3234,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="368">
+  <fills count="395">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5311,8 +5418,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="403">
+  <borders count="435">
     <border>
       <left/>
       <right/>
@@ -9412,6 +9672,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9421,7 +10007,7 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="270">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10162,52 +10748,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="343" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="343" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="346" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="346" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="349" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="349" fontId="212" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="352" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="352" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="215" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="358" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="358" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="349" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="349" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="361" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="361" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="361" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="361" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="370" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="373" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="376" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="379" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="385" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="376" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="388" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="388" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="391" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10945,7 +11579,7 @@
         <v>445</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>573</v>
       </c>
       <c r="H5" t="s">
         <v>461</v>
@@ -11019,7 +11653,7 @@
         <v>508</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>454</v>
@@ -11081,7 +11715,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>453</v>
@@ -11143,7 +11777,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -11199,7 +11833,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -11243,7 +11877,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>458</v>
@@ -11284,7 +11918,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -11322,7 +11956,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -11360,7 +11994,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -11395,7 +12029,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -11430,7 +12064,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>511</v>
@@ -11462,7 +12096,7 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -11494,7 +12128,7 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -11520,7 +12154,7 @@
         <v>421</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -11543,7 +12177,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -11563,7 +12197,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -11583,7 +12217,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -11603,7 +12237,7 @@
         <v>564</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>476</v>
@@ -11623,7 +12257,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -11643,7 +12277,7 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>397</v>
@@ -11663,7 +12297,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>547</v>
@@ -11683,7 +12317,7 @@
         <v>455</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -11703,7 +12337,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>446</v>
@@ -11723,7 +12357,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -11740,7 +12374,7 @@
         <v>474</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -11757,7 +12391,7 @@
         <v>475</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -11768,7 +12402,7 @@
         <v>422</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -11779,7 +12413,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -11790,7 +12424,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>513</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -11801,7 +12435,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>513</v>
       </c>
       <c r="Y34" t="s">
         <v>570</v>
@@ -11812,7 +12446,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -11823,7 +12457,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -11834,7 +12468,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -11845,7 +12479,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -11856,7 +12490,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
         <v>336</v>
@@ -11864,7 +12498,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
         <v>435</v>
@@ -11872,7 +12506,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>551</v>
@@ -11880,7 +12514,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>566</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>398</v>
@@ -11888,7 +12522,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>566</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -11896,7 +12530,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -11904,7 +12538,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -11912,7 +12546,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -11920,7 +12554,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -11928,7 +12562,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -11936,7 +12570,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>448</v>
@@ -11944,7 +12578,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -11952,7 +12586,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -11960,7 +12594,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
         <v>556</v>
@@ -11968,7 +12602,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -11976,7 +12610,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -11984,7 +12618,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -11992,7 +12626,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
         <v>489</v>
@@ -12000,7 +12634,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
         <v>471</v>
@@ -12008,7 +12642,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -12016,7 +12650,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>567</v>
       </c>
       <c r="Y59" t="s">
         <v>344</v>
@@ -12024,7 +12658,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
         <v>465</v>
@@ -12032,7 +12666,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -12040,7 +12674,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -12048,7 +12682,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -12056,7 +12690,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -12064,7 +12698,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -12072,7 +12706,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -12080,7 +12714,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -12088,7 +12722,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
         <v>444</v>
@@ -12096,7 +12730,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
         <v>479</v>
@@ -12104,7 +12738,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>552</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -12112,7 +12746,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="Y71" t="s">
         <v>387</v>
@@ -12120,7 +12754,7 @@
     </row>
     <row r="72"